--- a/resultantLookupTable.xlsx
+++ b/resultantLookupTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="105">
   <si>
     <t>UID</t>
   </si>
@@ -250,6 +250,9 @@
     <t>N</t>
   </si>
   <si>
+    <t>April</t>
+  </si>
+  <si>
     <t>February</t>
   </si>
   <si>
@@ -260,6 +263,21 @@
   </si>
   <si>
     <t>December</t>
+  </si>
+  <si>
+    <t>Tengwe Clinic</t>
+  </si>
+  <si>
+    <t>Murambi Clinic</t>
+  </si>
+  <si>
+    <t>Masikati Clinic</t>
+  </si>
+  <si>
+    <t>Chinhere Clinic</t>
+  </si>
+  <si>
+    <t>Beagest Clinic</t>
   </si>
   <si>
     <t>Chingondo</t>
@@ -304,22 +322,10 @@
     <t>Karoi District Hospital</t>
   </si>
   <si>
-    <t>Tengwe Clinic</t>
-  </si>
-  <si>
-    <t>Murambi Clinic</t>
-  </si>
-  <si>
-    <t>Masikati Clinic</t>
-  </si>
-  <si>
     <t>Chivende clinic</t>
   </si>
   <si>
     <t>Chinhere clinic</t>
-  </si>
-  <si>
-    <t>Beagest Clinic</t>
   </si>
   <si>
     <t>Nyamakate Clinic</t>
@@ -680,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BZ43"/>
+  <dimension ref="A1:BZ48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -933,19 +939,19 @@
         <v>2025</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -960,13 +966,13 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -987,13 +993,13 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -1032,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AO2">
         <v>1</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1128,16 +1134,16 @@
         <v>0</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BT2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BU2">
         <v>1</v>
       </c>
       <c r="BV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW2">
         <v>0</v>
@@ -1160,46 +1166,46 @@
         <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3">
         <v>2025</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>9</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
       <c r="P3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1217,157 +1223,157 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>3</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
         <v>9</v>
       </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>8</v>
-      </c>
-      <c r="AN3">
-        <v>9</v>
-      </c>
-      <c r="AO3">
-        <v>1</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
-      <c r="BQ3">
-        <v>0</v>
-      </c>
-      <c r="BR3">
-        <v>0</v>
-      </c>
-      <c r="BS3">
-        <v>8</v>
-      </c>
       <c r="BT3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BU3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BV3">
         <v>0</v>
@@ -1393,28 +1399,28 @@
         <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4">
         <v>2025</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
         <v>4</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
       <c r="K4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1426,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -1453,160 +1459,160 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>2</v>
+      </c>
+      <c r="AO4">
+        <v>2</v>
+      </c>
+      <c r="AP4">
+        <v>3</v>
+      </c>
+      <c r="AQ4">
+        <v>2</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>8</v>
+      </c>
+      <c r="BT4">
+        <v>5</v>
+      </c>
+      <c r="BU4">
+        <v>5</v>
+      </c>
+      <c r="BV4">
         <v>4</v>
       </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>11</v>
-      </c>
-      <c r="AO4">
-        <v>4</v>
-      </c>
-      <c r="AP4">
-        <v>1</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
-        <v>0</v>
-      </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
-      <c r="BR4">
-        <v>0</v>
-      </c>
-      <c r="BS4">
-        <v>0</v>
-      </c>
-      <c r="BT4">
-        <v>11</v>
-      </c>
-      <c r="BU4">
-        <v>4</v>
-      </c>
-      <c r="BV4">
-        <v>1</v>
-      </c>
       <c r="BW4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX4">
         <v>0</v>
@@ -1626,44 +1632,44 @@
         <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5">
         <v>2025</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>28</v>
+      </c>
+      <c r="P5">
         <v>3</v>
       </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
       <c r="Q5">
         <v>0</v>
       </c>
@@ -1686,160 +1692,160 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>10</v>
+      </c>
+      <c r="AN5">
         <v>3</v>
       </c>
-      <c r="Z5">
-        <v>2</v>
-      </c>
-      <c r="AA5">
-        <v>1</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>6</v>
-      </c>
       <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>28</v>
+      </c>
+      <c r="BT5">
         <v>3</v>
       </c>
-      <c r="AP5">
-        <v>2</v>
-      </c>
-      <c r="AQ5">
-        <v>1</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
-        <v>0</v>
-      </c>
-      <c r="BN5">
-        <v>0</v>
-      </c>
-      <c r="BO5">
-        <v>0</v>
-      </c>
-      <c r="BP5">
-        <v>0</v>
-      </c>
-      <c r="BQ5">
-        <v>0</v>
-      </c>
-      <c r="BR5">
-        <v>0</v>
-      </c>
-      <c r="BS5">
-        <v>0</v>
-      </c>
-      <c r="BT5">
-        <v>6</v>
-      </c>
       <c r="BU5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX5">
         <v>0</v>
@@ -1859,43 +1865,43 @@
         <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6">
         <v>2025</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1904,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1919,22 +1925,22 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1967,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AO6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>0</v>
@@ -2060,25 +2066,25 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BU6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BX6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
         <v>0</v>
@@ -2092,13 +2098,13 @@
         <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E7">
         <v>2025</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2107,13 +2113,13 @@
         <v>7</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -2155,13 +2161,13 @@
         <v>7</v>
       </c>
       <c r="Y7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -2203,13 +2209,13 @@
         <v>7</v>
       </c>
       <c r="AO7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2299,13 +2305,13 @@
         <v>7</v>
       </c>
       <c r="BU7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BV7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BW7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX7">
         <v>0</v>
@@ -2331,208 +2337,208 @@
         <v>2025</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
         <v>8</v>
       </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>3</v>
-      </c>
       <c r="X8">
+        <v>9</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
         <v>8</v>
       </c>
-      <c r="Y8">
-        <v>6</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>3</v>
-      </c>
       <c r="AN8">
+        <v>9</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
         <v>8</v>
       </c>
-      <c r="AO8">
-        <v>6</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
-      <c r="BI8">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>0</v>
-      </c>
-      <c r="BO8">
-        <v>0</v>
-      </c>
-      <c r="BP8">
-        <v>0</v>
-      </c>
-      <c r="BQ8">
-        <v>0</v>
-      </c>
-      <c r="BR8">
-        <v>0</v>
-      </c>
-      <c r="BS8">
-        <v>3</v>
-      </c>
       <c r="BT8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BU8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BV8">
         <v>0</v>
@@ -2558,19 +2564,19 @@
         <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>11</v>
-      </c>
-      <c r="H9">
-        <v>22</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -2579,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2615,10 +2621,10 @@
         <v>0</v>
       </c>
       <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
         <v>11</v>
-      </c>
-      <c r="X9">
-        <v>22</v>
       </c>
       <c r="Y9">
         <v>4</v>
@@ -2627,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="AA9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -2663,10 +2669,10 @@
         <v>0</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
         <v>11</v>
-      </c>
-      <c r="AN9">
-        <v>22</v>
       </c>
       <c r="AO9">
         <v>4</v>
@@ -2675,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2759,10 +2765,10 @@
         <v>0</v>
       </c>
       <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
         <v>11</v>
-      </c>
-      <c r="BT9">
-        <v>22</v>
       </c>
       <c r="BU9">
         <v>4</v>
@@ -2771,7 +2777,7 @@
         <v>1</v>
       </c>
       <c r="BW9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BX9">
         <v>0</v>
@@ -2797,22 +2803,22 @@
         <v>2025</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
         <v>3</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2824,43 +2830,43 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>6</v>
+      </c>
+      <c r="Y10">
         <v>3</v>
       </c>
-      <c r="Q10">
+      <c r="Z10">
         <v>2</v>
       </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -2896,115 +2902,115 @@
         <v>0</v>
       </c>
       <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>6</v>
+      </c>
+      <c r="AO10">
+        <v>3</v>
+      </c>
+      <c r="AP10">
         <v>2</v>
       </c>
-      <c r="AN10">
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>6</v>
+      </c>
+      <c r="BU10">
         <v>3</v>
       </c>
-      <c r="AO10">
+      <c r="BV10">
         <v>2</v>
       </c>
-      <c r="AP10">
-        <v>1</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>0</v>
-      </c>
-      <c r="BC10">
-        <v>0</v>
-      </c>
-      <c r="BD10">
-        <v>0</v>
-      </c>
-      <c r="BE10">
-        <v>0</v>
-      </c>
-      <c r="BF10">
-        <v>0</v>
-      </c>
-      <c r="BG10">
-        <v>0</v>
-      </c>
-      <c r="BH10">
-        <v>0</v>
-      </c>
-      <c r="BI10">
-        <v>0</v>
-      </c>
-      <c r="BJ10">
-        <v>0</v>
-      </c>
-      <c r="BK10">
-        <v>0</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BM10">
-        <v>0</v>
-      </c>
-      <c r="BN10">
-        <v>0</v>
-      </c>
-      <c r="BO10">
-        <v>0</v>
-      </c>
-      <c r="BP10">
-        <v>0</v>
-      </c>
-      <c r="BQ10">
-        <v>0</v>
-      </c>
-      <c r="BR10">
-        <v>0</v>
-      </c>
-      <c r="BS10">
-        <v>11</v>
-      </c>
-      <c r="BT10">
-        <v>3</v>
-      </c>
-      <c r="BU10">
-        <v>2</v>
-      </c>
-      <c r="BV10">
-        <v>1</v>
-      </c>
       <c r="BW10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX10">
         <v>0</v>
@@ -3030,40 +3036,40 @@
         <v>2025</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -3084,22 +3090,22 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -3129,25 +3135,25 @@
         <v>0</v>
       </c>
       <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
         <v>2</v>
       </c>
-      <c r="AN11">
-        <v>1</v>
-      </c>
       <c r="AO11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11">
         <v>0</v>
@@ -3225,25 +3231,25 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BT11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BU11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BV11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BX11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ11">
         <v>0</v>
@@ -3257,7 +3263,7 @@
         <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12">
         <v>2025</v>
@@ -3266,67 +3272,67 @@
         <v>90</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I12">
         <v>7</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
         <v>7</v>
       </c>
-      <c r="R12">
-        <v>4</v>
-      </c>
-      <c r="S12">
-        <v>6</v>
-      </c>
-      <c r="T12">
-        <v>6</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
       <c r="Y12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -3362,25 +3368,25 @@
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO12">
         <v>7</v>
       </c>
       <c r="AP12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12">
         <v>0</v>
@@ -3458,25 +3464,25 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BT12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BU12">
         <v>7</v>
       </c>
       <c r="BV12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BW12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BX12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BY12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ12">
         <v>0</v>
@@ -3490,214 +3496,214 @@
         <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E13">
         <v>2025</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G13">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
         <v>3</v>
       </c>
-      <c r="I13">
+      <c r="X13">
+        <v>8</v>
+      </c>
+      <c r="Y13">
+        <v>6</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
         <v>3</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>16</v>
-      </c>
-      <c r="P13">
+      <c r="AN13">
+        <v>8</v>
+      </c>
+      <c r="AO13">
+        <v>6</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
         <v>3</v>
       </c>
-      <c r="Q13">
-        <v>3</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>2</v>
-      </c>
-      <c r="AN13">
-        <v>3</v>
-      </c>
-      <c r="AO13">
-        <v>3</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <v>0</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-      <c r="BD13">
-        <v>0</v>
-      </c>
-      <c r="BE13">
-        <v>0</v>
-      </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <v>0</v>
-      </c>
-      <c r="BH13">
-        <v>0</v>
-      </c>
-      <c r="BI13">
-        <v>0</v>
-      </c>
-      <c r="BJ13">
-        <v>0</v>
-      </c>
-      <c r="BK13">
-        <v>0</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
-        <v>0</v>
-      </c>
-      <c r="BO13">
-        <v>0</v>
-      </c>
-      <c r="BP13">
-        <v>0</v>
-      </c>
-      <c r="BQ13">
-        <v>0</v>
-      </c>
-      <c r="BR13">
-        <v>0</v>
-      </c>
-      <c r="BS13">
-        <v>16</v>
-      </c>
       <c r="BT13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BU13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BV13">
         <v>0</v>
@@ -3723,28 +3729,28 @@
         <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E14">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -3756,16 +3762,16 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -3780,19 +3786,19 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -3828,20 +3834,20 @@
         <v>0</v>
       </c>
       <c r="AM14">
+        <v>11</v>
+      </c>
+      <c r="AN14">
+        <v>22</v>
+      </c>
+      <c r="AO14">
+        <v>4</v>
+      </c>
+      <c r="AP14">
+        <v>1</v>
+      </c>
+      <c r="AQ14">
         <v>3</v>
       </c>
-      <c r="AN14">
-        <v>2</v>
-      </c>
-      <c r="AO14">
-        <v>1</v>
-      </c>
-      <c r="AP14">
-        <v>1</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
       <c r="AR14">
         <v>0</v>
       </c>
@@ -3924,19 +3930,19 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BT14">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="BU14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BV14">
         <v>1</v>
       </c>
       <c r="BW14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BX14">
         <v>0</v>
@@ -3956,22 +3962,22 @@
         <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E15">
         <v>2025</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -3989,13 +3995,13 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R15">
         <v>1</v>
@@ -4061,13 +4067,13 @@
         <v>0</v>
       </c>
       <c r="AM15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AO15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AP15">
         <v>1</v>
@@ -4157,13 +4163,13 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BT15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BU15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BV15">
         <v>1</v>
@@ -4189,28 +4195,28 @@
         <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E16">
         <v>2025</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -4222,19 +4228,19 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -4294,19 +4300,19 @@
         <v>0</v>
       </c>
       <c r="AM16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AO16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AP16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4390,19 +4396,19 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BT16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BU16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BV16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BW16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX16">
         <v>0</v>
@@ -4422,58 +4428,58 @@
         <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E17">
         <v>2025</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G17">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
         <v>7</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>4</v>
       </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
       <c r="K17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="P17">
+        <v>6</v>
+      </c>
+      <c r="Q17">
         <v>7</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>4</v>
       </c>
-      <c r="R17">
-        <v>2</v>
-      </c>
       <c r="S17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -4527,25 +4533,25 @@
         <v>0</v>
       </c>
       <c r="AM17">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="AN17">
+        <v>6</v>
+      </c>
+      <c r="AO17">
         <v>7</v>
       </c>
-      <c r="AO17">
+      <c r="AP17">
         <v>4</v>
       </c>
-      <c r="AP17">
-        <v>2</v>
-      </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17">
         <v>0</v>
@@ -4623,25 +4629,25 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="BT17">
+        <v>6</v>
+      </c>
+      <c r="BU17">
         <v>7</v>
       </c>
-      <c r="BU17">
+      <c r="BV17">
         <v>4</v>
       </c>
-      <c r="BV17">
-        <v>2</v>
-      </c>
       <c r="BW17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BX17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BY17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ17">
         <v>0</v>
@@ -4655,121 +4661,121 @@
         <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E18">
         <v>2025</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G18">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
         <v>2</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>25</v>
-      </c>
-      <c r="P18">
-        <v>2</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>2</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>6</v>
-      </c>
       <c r="AN18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -4856,16 +4862,16 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="BT18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BU18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BV18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW18">
         <v>0</v>
@@ -4888,25 +4894,25 @@
         <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E19">
         <v>2025</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G19">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -4921,16 +4927,16 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -4993,16 +4999,16 @@
         <v>0</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -5089,16 +5095,16 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="BT19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW19">
         <v>0</v>
@@ -5121,25 +5127,25 @@
         <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E20">
         <v>2025</v>
       </c>
       <c r="F20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G20">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H20">
         <v>6</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -5154,16 +5160,16 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P20">
         <v>6</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -5229,13 +5235,13 @@
         <v>4</v>
       </c>
       <c r="AN20">
+        <v>6</v>
+      </c>
+      <c r="AO20">
         <v>5</v>
       </c>
-      <c r="AO20">
-        <v>2</v>
-      </c>
       <c r="AP20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>0</v>
@@ -5322,16 +5328,16 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="BT20">
         <v>6</v>
       </c>
       <c r="BU20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BV20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW20">
         <v>0</v>
@@ -5354,28 +5360,28 @@
         <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E21">
         <v>2025</v>
       </c>
       <c r="F21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -5387,19 +5393,19 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -5459,19 +5465,19 @@
         <v>0</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5555,19 +5561,19 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BT21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BV21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BW21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX21">
         <v>0</v>
@@ -5587,31 +5593,31 @@
         <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E22">
         <v>2025</v>
       </c>
       <c r="F22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G22">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -5620,22 +5626,22 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="P22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -5692,22 +5698,22 @@
         <v>0</v>
       </c>
       <c r="AM22">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AO22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS22">
         <v>0</v>
@@ -5788,22 +5794,22 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="BT22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BU22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BV22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY22">
         <v>0</v>
@@ -5820,25 +5826,25 @@
         <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E23">
         <v>2025</v>
       </c>
       <c r="F23" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="G23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -5853,16 +5859,16 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -5925,16 +5931,16 @@
         <v>0</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AN23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -6021,16 +6027,16 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BT23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BU23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW23">
         <v>0</v>
@@ -6053,16 +6059,16 @@
         <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E24">
         <v>2025</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -6086,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -6254,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BT24">
         <v>0</v>
@@ -6286,23 +6292,23 @@
         <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E25">
         <v>2025</v>
       </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G25">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
         <v>2</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
       <c r="J25">
         <v>0</v>
       </c>
@@ -6319,14 +6325,14 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="P25">
+        <v>6</v>
+      </c>
+      <c r="Q25">
         <v>2</v>
       </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
       <c r="R25">
         <v>0</v>
       </c>
@@ -6391,14 +6397,14 @@
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AN25">
+        <v>5</v>
+      </c>
+      <c r="AO25">
         <v>2</v>
       </c>
-      <c r="AO25">
-        <v>1</v>
-      </c>
       <c r="AP25">
         <v>0</v>
       </c>
@@ -6487,13 +6493,13 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="BT25">
+        <v>6</v>
+      </c>
+      <c r="BU25">
         <v>2</v>
-      </c>
-      <c r="BU25">
-        <v>1</v>
       </c>
       <c r="BV25">
         <v>0</v>
@@ -6519,16 +6525,16 @@
         <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E26">
         <v>2025</v>
       </c>
       <c r="F26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G26">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -6552,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -6720,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BT26">
         <v>0</v>
@@ -6752,22 +6758,22 @@
         <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E27">
         <v>2025</v>
       </c>
       <c r="F27" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -6776,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -6785,13 +6791,13 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -6800,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -6857,13 +6863,13 @@
         <v>0</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AN27">
         <v>0</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP27">
         <v>0</v>
@@ -6872,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS27">
         <v>0</v>
@@ -6953,13 +6959,13 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="BT27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BU27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV27">
         <v>0</v>
@@ -6968,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="BX27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY27">
         <v>0</v>
@@ -6985,25 +6991,25 @@
         <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E28">
         <v>2025</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H28">
         <v>3</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -7018,16 +7024,16 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="P28">
         <v>3</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -7090,16 +7096,16 @@
         <v>0</v>
       </c>
       <c r="AM28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN28">
         <v>3</v>
       </c>
       <c r="AO28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ28">
         <v>0</v>
@@ -7186,16 +7192,16 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="BT28">
         <v>3</v>
       </c>
       <c r="BU28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW28">
         <v>0</v>
@@ -7224,22 +7230,22 @@
         <v>2025</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -7251,19 +7257,19 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -7323,19 +7329,19 @@
         <v>0</v>
       </c>
       <c r="AM29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AO29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7419,19 +7425,19 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BT29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BU29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX29">
         <v>0</v>
@@ -7451,22 +7457,22 @@
         <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E30">
         <v>2025</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -7484,13 +7490,13 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -7556,13 +7562,13 @@
         <v>0</v>
       </c>
       <c r="AM30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP30">
         <v>0</v>
@@ -7652,13 +7658,13 @@
         <v>0</v>
       </c>
       <c r="BS30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BT30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV30">
         <v>0</v>
@@ -7684,22 +7690,22 @@
         <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E31">
         <v>2025</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -7717,13 +7723,13 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -7789,13 +7795,13 @@
         <v>0</v>
       </c>
       <c r="AM31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP31">
         <v>0</v>
@@ -7885,13 +7891,13 @@
         <v>0</v>
       </c>
       <c r="BS31">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BT31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BU31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV31">
         <v>0</v>
@@ -7917,22 +7923,22 @@
         <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E32">
         <v>2025</v>
       </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -7950,13 +7956,13 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -8025,10 +8031,10 @@
         <v>0</v>
       </c>
       <c r="AN32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP32">
         <v>0</v>
@@ -8118,13 +8124,13 @@
         <v>0</v>
       </c>
       <c r="BS32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BT32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BU32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV32">
         <v>0</v>
@@ -8150,22 +8156,22 @@
         <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E33">
         <v>2025</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G33">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="H33">
         <v>3</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -8183,13 +8189,13 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="P33">
         <v>3</v>
       </c>
       <c r="Q33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R33">
         <v>1</v>
@@ -8255,13 +8261,13 @@
         <v>0</v>
       </c>
       <c r="AM33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AN33">
         <v>3</v>
       </c>
       <c r="AO33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP33">
         <v>1</v>
@@ -8351,13 +8357,13 @@
         <v>0</v>
       </c>
       <c r="BS33">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="BT33">
         <v>3</v>
       </c>
       <c r="BU33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BV33">
         <v>1</v>
@@ -8383,19 +8389,19 @@
         <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E34">
         <v>2025</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I34">
         <v>3</v>
@@ -8404,7 +8410,7 @@
         <v>1</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -8416,10 +8422,10 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8428,7 +8434,7 @@
         <v>1</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -8488,10 +8494,10 @@
         <v>0</v>
       </c>
       <c r="AM34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO34">
         <v>3</v>
@@ -8500,7 +8506,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>0</v>
@@ -8584,10 +8590,10 @@
         <v>0</v>
       </c>
       <c r="BS34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BT34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BU34">
         <v>3</v>
@@ -8596,7 +8602,7 @@
         <v>1</v>
       </c>
       <c r="BW34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX34">
         <v>0</v>
@@ -8622,16 +8628,16 @@
         <v>2025</v>
       </c>
       <c r="F35" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -8649,13 +8655,13 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -8721,13 +8727,13 @@
         <v>0</v>
       </c>
       <c r="AM35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP35">
         <v>0</v>
@@ -8817,13 +8823,13 @@
         <v>0</v>
       </c>
       <c r="BS35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BT35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV35">
         <v>0</v>
@@ -8855,19 +8861,19 @@
         <v>2025</v>
       </c>
       <c r="F36" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G36">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -8882,16 +8888,16 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -8954,16 +8960,16 @@
         <v>0</v>
       </c>
       <c r="AM36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AO36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ36">
         <v>0</v>
@@ -9050,16 +9056,16 @@
         <v>0</v>
       </c>
       <c r="BS36">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BT36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BU36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BV36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW36">
         <v>0</v>
@@ -9088,16 +9094,16 @@
         <v>2025</v>
       </c>
       <c r="F37" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -9115,13 +9121,13 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -9190,10 +9196,10 @@
         <v>0</v>
       </c>
       <c r="AN37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP37">
         <v>0</v>
@@ -9283,13 +9289,13 @@
         <v>0</v>
       </c>
       <c r="BS37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BT37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BU37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BV37">
         <v>0</v>
@@ -9321,22 +9327,22 @@
         <v>2025</v>
       </c>
       <c r="F38" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G38">
+        <v>38</v>
+      </c>
+      <c r="H38">
         <v>3</v>
       </c>
-      <c r="H38">
-        <v>4</v>
-      </c>
       <c r="I38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -9348,19 +9354,19 @@
         <v>0</v>
       </c>
       <c r="O38">
+        <v>38</v>
+      </c>
+      <c r="P38">
         <v>3</v>
       </c>
-      <c r="P38">
-        <v>4</v>
-      </c>
       <c r="Q38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -9420,19 +9426,19 @@
         <v>0</v>
       </c>
       <c r="AM38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AN38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR38">
         <v>0</v>
@@ -9516,19 +9522,19 @@
         <v>0</v>
       </c>
       <c r="BS38">
+        <v>38</v>
+      </c>
+      <c r="BT38">
         <v>3</v>
       </c>
-      <c r="BT38">
-        <v>4</v>
-      </c>
       <c r="BU38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BV38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX38">
         <v>0</v>
@@ -9548,7 +9554,7 @@
         <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E39">
         <v>2025</v>
@@ -9557,16 +9563,16 @@
         <v>95</v>
       </c>
       <c r="G39">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39">
         <v>3</v>
       </c>
-      <c r="I39">
-        <v>4</v>
-      </c>
       <c r="J39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -9581,16 +9587,16 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="P39">
+        <v>5</v>
+      </c>
+      <c r="Q39">
         <v>3</v>
       </c>
-      <c r="Q39">
-        <v>4</v>
-      </c>
       <c r="R39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -9653,16 +9659,16 @@
         <v>0</v>
       </c>
       <c r="AM39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN39">
+        <v>5</v>
+      </c>
+      <c r="AO39">
         <v>3</v>
       </c>
-      <c r="AO39">
-        <v>4</v>
-      </c>
       <c r="AP39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
         <v>0</v>
@@ -9749,16 +9755,16 @@
         <v>0</v>
       </c>
       <c r="BS39">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="BT39">
+        <v>5</v>
+      </c>
+      <c r="BU39">
         <v>3</v>
       </c>
-      <c r="BU39">
-        <v>4</v>
-      </c>
       <c r="BV39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BW39">
         <v>0</v>
@@ -9781,25 +9787,25 @@
         <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E40">
         <v>2025</v>
       </c>
       <c r="F40" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -9814,16 +9820,16 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -9889,13 +9895,13 @@
         <v>3</v>
       </c>
       <c r="AN40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40">
         <v>0</v>
@@ -9982,16 +9988,16 @@
         <v>0</v>
       </c>
       <c r="BS40">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BT40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BU40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BV40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW40">
         <v>0</v>
@@ -10014,223 +10020,223 @@
         <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E41">
         <v>2025</v>
       </c>
       <c r="F41" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G41">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H41">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>8</v>
+      </c>
+      <c r="P41">
         <v>6</v>
       </c>
-      <c r="L41">
+      <c r="Q41">
         <v>4</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>15</v>
-      </c>
-      <c r="P41">
-        <v>9</v>
-      </c>
-      <c r="Q41">
-        <v>5</v>
-      </c>
       <c r="R41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
         <v>6</v>
       </c>
-      <c r="T41">
+      <c r="AO41">
         <v>4</v>
       </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
-      <c r="AC41">
-        <v>0</v>
-      </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
-      <c r="AE41">
-        <v>0</v>
-      </c>
-      <c r="AF41">
-        <v>0</v>
-      </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
-      <c r="AH41">
-        <v>0</v>
-      </c>
-      <c r="AI41">
-        <v>0</v>
-      </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
-      <c r="AK41">
-        <v>0</v>
-      </c>
-      <c r="AL41">
-        <v>0</v>
-      </c>
-      <c r="AM41">
+      <c r="AP41">
+        <v>1</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>0</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
+      </c>
+      <c r="BE41">
+        <v>0</v>
+      </c>
+      <c r="BF41">
+        <v>0</v>
+      </c>
+      <c r="BG41">
+        <v>0</v>
+      </c>
+      <c r="BH41">
+        <v>0</v>
+      </c>
+      <c r="BI41">
+        <v>0</v>
+      </c>
+      <c r="BJ41">
+        <v>0</v>
+      </c>
+      <c r="BK41">
+        <v>0</v>
+      </c>
+      <c r="BL41">
+        <v>0</v>
+      </c>
+      <c r="BM41">
+        <v>0</v>
+      </c>
+      <c r="BN41">
+        <v>0</v>
+      </c>
+      <c r="BO41">
+        <v>0</v>
+      </c>
+      <c r="BP41">
+        <v>0</v>
+      </c>
+      <c r="BQ41">
+        <v>0</v>
+      </c>
+      <c r="BR41">
+        <v>0</v>
+      </c>
+      <c r="BS41">
         <v>8</v>
       </c>
-      <c r="AN41">
-        <v>9</v>
-      </c>
-      <c r="AO41">
-        <v>5</v>
-      </c>
-      <c r="AP41">
-        <v>5</v>
-      </c>
-      <c r="AQ41">
+      <c r="BT41">
         <v>6</v>
       </c>
-      <c r="AR41">
+      <c r="BU41">
         <v>4</v>
       </c>
-      <c r="AS41">
-        <v>0</v>
-      </c>
-      <c r="AT41">
-        <v>0</v>
-      </c>
-      <c r="AU41">
-        <v>0</v>
-      </c>
-      <c r="AV41">
-        <v>0</v>
-      </c>
-      <c r="AW41">
-        <v>0</v>
-      </c>
-      <c r="AX41">
-        <v>0</v>
-      </c>
-      <c r="AY41">
-        <v>0</v>
-      </c>
-      <c r="AZ41">
-        <v>0</v>
-      </c>
-      <c r="BA41">
-        <v>0</v>
-      </c>
-      <c r="BB41">
-        <v>0</v>
-      </c>
-      <c r="BC41">
-        <v>0</v>
-      </c>
-      <c r="BD41">
-        <v>0</v>
-      </c>
-      <c r="BE41">
-        <v>0</v>
-      </c>
-      <c r="BF41">
-        <v>0</v>
-      </c>
-      <c r="BG41">
-        <v>0</v>
-      </c>
-      <c r="BH41">
-        <v>0</v>
-      </c>
-      <c r="BI41">
-        <v>0</v>
-      </c>
-      <c r="BJ41">
-        <v>0</v>
-      </c>
-      <c r="BK41">
-        <v>0</v>
-      </c>
-      <c r="BL41">
-        <v>0</v>
-      </c>
-      <c r="BM41">
-        <v>0</v>
-      </c>
-      <c r="BN41">
-        <v>0</v>
-      </c>
-      <c r="BO41">
-        <v>0</v>
-      </c>
-      <c r="BP41">
-        <v>0</v>
-      </c>
-      <c r="BQ41">
-        <v>0</v>
-      </c>
-      <c r="BR41">
-        <v>0</v>
-      </c>
-      <c r="BS41">
-        <v>15</v>
-      </c>
-      <c r="BT41">
-        <v>9</v>
-      </c>
-      <c r="BU41">
-        <v>5</v>
-      </c>
       <c r="BV41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW41">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BX41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BY41">
         <v>0</v>
@@ -10247,22 +10253,22 @@
         <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E42">
         <v>2025</v>
       </c>
       <c r="F42" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -10280,13 +10286,13 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R42">
         <v>0</v>
@@ -10355,10 +10361,10 @@
         <v>0</v>
       </c>
       <c r="AN42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP42">
         <v>0</v>
@@ -10448,13 +10454,13 @@
         <v>0</v>
       </c>
       <c r="BS42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BT42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV42">
         <v>0</v>
@@ -10480,228 +10486,1393 @@
         <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E43">
         <v>2025</v>
       </c>
       <c r="F43" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>3</v>
+      </c>
+      <c r="P43">
+        <v>4</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>0</v>
+      </c>
+      <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <v>4</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>0</v>
+      </c>
+      <c r="AQ43">
+        <v>1</v>
+      </c>
+      <c r="AR43">
+        <v>0</v>
+      </c>
+      <c r="AS43">
+        <v>0</v>
+      </c>
+      <c r="AT43">
+        <v>0</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
+        <v>0</v>
+      </c>
+      <c r="AW43">
+        <v>0</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>0</v>
+      </c>
+      <c r="AZ43">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43">
+        <v>0</v>
+      </c>
+      <c r="BD43">
+        <v>0</v>
+      </c>
+      <c r="BE43">
+        <v>0</v>
+      </c>
+      <c r="BF43">
+        <v>0</v>
+      </c>
+      <c r="BG43">
+        <v>0</v>
+      </c>
+      <c r="BH43">
+        <v>0</v>
+      </c>
+      <c r="BI43">
+        <v>0</v>
+      </c>
+      <c r="BJ43">
+        <v>0</v>
+      </c>
+      <c r="BK43">
+        <v>0</v>
+      </c>
+      <c r="BL43">
+        <v>0</v>
+      </c>
+      <c r="BM43">
+        <v>0</v>
+      </c>
+      <c r="BN43">
+        <v>0</v>
+      </c>
+      <c r="BO43">
+        <v>0</v>
+      </c>
+      <c r="BP43">
+        <v>0</v>
+      </c>
+      <c r="BQ43">
+        <v>0</v>
+      </c>
+      <c r="BR43">
+        <v>0</v>
+      </c>
+      <c r="BS43">
+        <v>3</v>
+      </c>
+      <c r="BT43">
+        <v>4</v>
+      </c>
+      <c r="BU43">
+        <v>0</v>
+      </c>
+      <c r="BV43">
+        <v>0</v>
+      </c>
+      <c r="BW43">
+        <v>1</v>
+      </c>
+      <c r="BX43">
+        <v>0</v>
+      </c>
+      <c r="BY43">
+        <v>0</v>
+      </c>
+      <c r="BZ43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:78">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44">
+        <v>2025</v>
+      </c>
+      <c r="F44" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44">
+        <v>24</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>24</v>
+      </c>
+      <c r="P44">
+        <v>3</v>
+      </c>
+      <c r="Q44">
+        <v>4</v>
+      </c>
+      <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <v>2</v>
+      </c>
+      <c r="AN44">
+        <v>3</v>
+      </c>
+      <c r="AO44">
+        <v>4</v>
+      </c>
+      <c r="AP44">
+        <v>2</v>
+      </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>0</v>
+      </c>
+      <c r="AS44">
+        <v>0</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <v>0</v>
+      </c>
+      <c r="AV44">
+        <v>0</v>
+      </c>
+      <c r="AW44">
+        <v>0</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>0</v>
+      </c>
+      <c r="AZ44">
+        <v>0</v>
+      </c>
+      <c r="BA44">
+        <v>0</v>
+      </c>
+      <c r="BB44">
+        <v>0</v>
+      </c>
+      <c r="BC44">
+        <v>0</v>
+      </c>
+      <c r="BD44">
+        <v>0</v>
+      </c>
+      <c r="BE44">
+        <v>0</v>
+      </c>
+      <c r="BF44">
+        <v>0</v>
+      </c>
+      <c r="BG44">
+        <v>0</v>
+      </c>
+      <c r="BH44">
+        <v>0</v>
+      </c>
+      <c r="BI44">
+        <v>0</v>
+      </c>
+      <c r="BJ44">
+        <v>0</v>
+      </c>
+      <c r="BK44">
+        <v>0</v>
+      </c>
+      <c r="BL44">
+        <v>0</v>
+      </c>
+      <c r="BM44">
+        <v>0</v>
+      </c>
+      <c r="BN44">
+        <v>0</v>
+      </c>
+      <c r="BO44">
+        <v>0</v>
+      </c>
+      <c r="BP44">
+        <v>0</v>
+      </c>
+      <c r="BQ44">
+        <v>0</v>
+      </c>
+      <c r="BR44">
+        <v>0</v>
+      </c>
+      <c r="BS44">
+        <v>24</v>
+      </c>
+      <c r="BT44">
+        <v>3</v>
+      </c>
+      <c r="BU44">
+        <v>4</v>
+      </c>
+      <c r="BV44">
+        <v>2</v>
+      </c>
+      <c r="BW44">
+        <v>0</v>
+      </c>
+      <c r="BX44">
+        <v>0</v>
+      </c>
+      <c r="BY44">
+        <v>0</v>
+      </c>
+      <c r="BZ44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:78">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45">
+        <v>2025</v>
+      </c>
+      <c r="F45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>4</v>
+      </c>
+      <c r="P45">
+        <v>3</v>
+      </c>
+      <c r="Q45">
+        <v>2</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>0</v>
+      </c>
+      <c r="AM45">
+        <v>3</v>
+      </c>
+      <c r="AN45">
+        <v>3</v>
+      </c>
+      <c r="AO45">
+        <v>2</v>
+      </c>
+      <c r="AP45">
+        <v>1</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <v>0</v>
+      </c>
+      <c r="AS45">
+        <v>0</v>
+      </c>
+      <c r="AT45">
+        <v>0</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AV45">
+        <v>0</v>
+      </c>
+      <c r="AW45">
+        <v>0</v>
+      </c>
+      <c r="AX45">
+        <v>0</v>
+      </c>
+      <c r="AY45">
+        <v>0</v>
+      </c>
+      <c r="AZ45">
+        <v>0</v>
+      </c>
+      <c r="BA45">
+        <v>0</v>
+      </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
+      <c r="BC45">
+        <v>0</v>
+      </c>
+      <c r="BD45">
+        <v>0</v>
+      </c>
+      <c r="BE45">
+        <v>0</v>
+      </c>
+      <c r="BF45">
+        <v>0</v>
+      </c>
+      <c r="BG45">
+        <v>0</v>
+      </c>
+      <c r="BH45">
+        <v>0</v>
+      </c>
+      <c r="BI45">
+        <v>0</v>
+      </c>
+      <c r="BJ45">
+        <v>0</v>
+      </c>
+      <c r="BK45">
+        <v>0</v>
+      </c>
+      <c r="BL45">
+        <v>0</v>
+      </c>
+      <c r="BM45">
+        <v>0</v>
+      </c>
+      <c r="BN45">
+        <v>0</v>
+      </c>
+      <c r="BO45">
+        <v>0</v>
+      </c>
+      <c r="BP45">
+        <v>0</v>
+      </c>
+      <c r="BQ45">
+        <v>0</v>
+      </c>
+      <c r="BR45">
+        <v>0</v>
+      </c>
+      <c r="BS45">
+        <v>4</v>
+      </c>
+      <c r="BT45">
+        <v>3</v>
+      </c>
+      <c r="BU45">
+        <v>2</v>
+      </c>
+      <c r="BV45">
+        <v>1</v>
+      </c>
+      <c r="BW45">
+        <v>0</v>
+      </c>
+      <c r="BX45">
+        <v>0</v>
+      </c>
+      <c r="BY45">
+        <v>0</v>
+      </c>
+      <c r="BZ45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:78">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46">
+        <v>2025</v>
+      </c>
+      <c r="F46" t="s">
         <v>96</v>
       </c>
-      <c r="G43">
+      <c r="G46">
         <v>15</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
+      <c r="H46">
+        <v>9</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <v>6</v>
+      </c>
+      <c r="L46">
+        <v>4</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
         <v>15</v>
       </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
-      <c r="AE43">
-        <v>0</v>
-      </c>
-      <c r="AF43">
-        <v>0</v>
-      </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43">
-        <v>0</v>
-      </c>
-      <c r="AI43">
-        <v>0</v>
-      </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
-      <c r="AK43">
-        <v>0</v>
-      </c>
-      <c r="AL43">
-        <v>0</v>
-      </c>
-      <c r="AM43">
-        <v>0</v>
-      </c>
-      <c r="AN43">
-        <v>0</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>0</v>
-      </c>
-      <c r="AQ43">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>0</v>
-      </c>
-      <c r="AS43">
-        <v>0</v>
-      </c>
-      <c r="AT43">
-        <v>0</v>
-      </c>
-      <c r="AU43">
-        <v>0</v>
-      </c>
-      <c r="AV43">
-        <v>0</v>
-      </c>
-      <c r="AW43">
-        <v>0</v>
-      </c>
-      <c r="AX43">
-        <v>0</v>
-      </c>
-      <c r="AY43">
-        <v>0</v>
-      </c>
-      <c r="AZ43">
-        <v>0</v>
-      </c>
-      <c r="BA43">
-        <v>0</v>
-      </c>
-      <c r="BB43">
-        <v>0</v>
-      </c>
-      <c r="BC43">
-        <v>0</v>
-      </c>
-      <c r="BD43">
-        <v>0</v>
-      </c>
-      <c r="BE43">
-        <v>0</v>
-      </c>
-      <c r="BF43">
-        <v>0</v>
-      </c>
-      <c r="BG43">
-        <v>0</v>
-      </c>
-      <c r="BH43">
-        <v>0</v>
-      </c>
-      <c r="BI43">
-        <v>0</v>
-      </c>
-      <c r="BJ43">
-        <v>0</v>
-      </c>
-      <c r="BK43">
-        <v>0</v>
-      </c>
-      <c r="BL43">
-        <v>0</v>
-      </c>
-      <c r="BM43">
-        <v>0</v>
-      </c>
-      <c r="BN43">
-        <v>0</v>
-      </c>
-      <c r="BO43">
-        <v>0</v>
-      </c>
-      <c r="BP43">
-        <v>0</v>
-      </c>
-      <c r="BQ43">
-        <v>0</v>
-      </c>
-      <c r="BR43">
-        <v>0</v>
-      </c>
-      <c r="BS43">
+      <c r="P46">
+        <v>9</v>
+      </c>
+      <c r="Q46">
+        <v>5</v>
+      </c>
+      <c r="R46">
+        <v>5</v>
+      </c>
+      <c r="S46">
+        <v>6</v>
+      </c>
+      <c r="T46">
+        <v>4</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>8</v>
+      </c>
+      <c r="AN46">
+        <v>9</v>
+      </c>
+      <c r="AO46">
+        <v>5</v>
+      </c>
+      <c r="AP46">
+        <v>5</v>
+      </c>
+      <c r="AQ46">
+        <v>6</v>
+      </c>
+      <c r="AR46">
+        <v>4</v>
+      </c>
+      <c r="AS46">
+        <v>0</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>0</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BE46">
+        <v>0</v>
+      </c>
+      <c r="BF46">
+        <v>0</v>
+      </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
+      <c r="BH46">
+        <v>0</v>
+      </c>
+      <c r="BI46">
+        <v>0</v>
+      </c>
+      <c r="BJ46">
+        <v>0</v>
+      </c>
+      <c r="BK46">
+        <v>0</v>
+      </c>
+      <c r="BL46">
+        <v>0</v>
+      </c>
+      <c r="BM46">
+        <v>0</v>
+      </c>
+      <c r="BN46">
+        <v>0</v>
+      </c>
+      <c r="BO46">
+        <v>0</v>
+      </c>
+      <c r="BP46">
+        <v>0</v>
+      </c>
+      <c r="BQ46">
+        <v>0</v>
+      </c>
+      <c r="BR46">
+        <v>0</v>
+      </c>
+      <c r="BS46">
+        <v>15</v>
+      </c>
+      <c r="BT46">
+        <v>9</v>
+      </c>
+      <c r="BU46">
+        <v>5</v>
+      </c>
+      <c r="BV46">
+        <v>5</v>
+      </c>
+      <c r="BW46">
+        <v>6</v>
+      </c>
+      <c r="BX46">
+        <v>4</v>
+      </c>
+      <c r="BY46">
+        <v>0</v>
+      </c>
+      <c r="BZ46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:78">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47">
+        <v>2025</v>
+      </c>
+      <c r="F47" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>0</v>
+      </c>
+      <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>0</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>0</v>
+      </c>
+      <c r="AS47">
+        <v>0</v>
+      </c>
+      <c r="AT47">
+        <v>0</v>
+      </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
+      <c r="AW47">
+        <v>0</v>
+      </c>
+      <c r="AX47">
+        <v>0</v>
+      </c>
+      <c r="AY47">
+        <v>0</v>
+      </c>
+      <c r="AZ47">
+        <v>0</v>
+      </c>
+      <c r="BA47">
+        <v>0</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
+        <v>0</v>
+      </c>
+      <c r="BD47">
+        <v>0</v>
+      </c>
+      <c r="BE47">
+        <v>0</v>
+      </c>
+      <c r="BF47">
+        <v>0</v>
+      </c>
+      <c r="BG47">
+        <v>0</v>
+      </c>
+      <c r="BH47">
+        <v>0</v>
+      </c>
+      <c r="BI47">
+        <v>0</v>
+      </c>
+      <c r="BJ47">
+        <v>0</v>
+      </c>
+      <c r="BK47">
+        <v>0</v>
+      </c>
+      <c r="BL47">
+        <v>0</v>
+      </c>
+      <c r="BM47">
+        <v>0</v>
+      </c>
+      <c r="BN47">
+        <v>0</v>
+      </c>
+      <c r="BO47">
+        <v>0</v>
+      </c>
+      <c r="BP47">
+        <v>0</v>
+      </c>
+      <c r="BQ47">
+        <v>0</v>
+      </c>
+      <c r="BR47">
+        <v>0</v>
+      </c>
+      <c r="BS47">
+        <v>0</v>
+      </c>
+      <c r="BT47">
+        <v>0</v>
+      </c>
+      <c r="BU47">
+        <v>0</v>
+      </c>
+      <c r="BV47">
+        <v>0</v>
+      </c>
+      <c r="BW47">
+        <v>0</v>
+      </c>
+      <c r="BX47">
+        <v>0</v>
+      </c>
+      <c r="BY47">
+        <v>0</v>
+      </c>
+      <c r="BZ47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:78">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48">
+        <v>2025</v>
+      </c>
+      <c r="F48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48">
+        <v>15</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>15</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>0</v>
+      </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
+      <c r="AR48">
+        <v>0</v>
+      </c>
+      <c r="AS48">
+        <v>0</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>0</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+      <c r="BF48">
+        <v>0</v>
+      </c>
+      <c r="BG48">
+        <v>0</v>
+      </c>
+      <c r="BH48">
+        <v>0</v>
+      </c>
+      <c r="BI48">
+        <v>0</v>
+      </c>
+      <c r="BJ48">
+        <v>0</v>
+      </c>
+      <c r="BK48">
+        <v>0</v>
+      </c>
+      <c r="BL48">
+        <v>0</v>
+      </c>
+      <c r="BM48">
+        <v>0</v>
+      </c>
+      <c r="BN48">
+        <v>0</v>
+      </c>
+      <c r="BO48">
+        <v>0</v>
+      </c>
+      <c r="BP48">
+        <v>0</v>
+      </c>
+      <c r="BQ48">
+        <v>0</v>
+      </c>
+      <c r="BR48">
+        <v>0</v>
+      </c>
+      <c r="BS48">
         <v>11</v>
       </c>
-      <c r="BT43">
-        <v>0</v>
-      </c>
-      <c r="BU43">
-        <v>0</v>
-      </c>
-      <c r="BV43">
-        <v>0</v>
-      </c>
-      <c r="BW43">
-        <v>0</v>
-      </c>
-      <c r="BX43">
-        <v>0</v>
-      </c>
-      <c r="BY43">
-        <v>0</v>
-      </c>
-      <c r="BZ43">
+      <c r="BT48">
+        <v>0</v>
+      </c>
+      <c r="BU48">
+        <v>0</v>
+      </c>
+      <c r="BV48">
+        <v>0</v>
+      </c>
+      <c r="BW48">
+        <v>0</v>
+      </c>
+      <c r="BX48">
+        <v>0</v>
+      </c>
+      <c r="BY48">
+        <v>0</v>
+      </c>
+      <c r="BZ48">
         <v>0</v>
       </c>
     </row>

--- a/resultantLookupTable.xlsx
+++ b/resultantLookupTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="106">
   <si>
     <t>UID</t>
   </si>
@@ -250,10 +250,10 @@
     <t>N</t>
   </si>
   <si>
-    <t>April</t>
+    <t>February</t>
   </si>
   <si>
-    <t>February</t>
+    <t>April</t>
   </si>
   <si>
     <t>January</t>
@@ -263,6 +263,33 @@
   </si>
   <si>
     <t>December</t>
+  </si>
+  <si>
+    <t>Border Church Clinic</t>
+  </si>
+  <si>
+    <t>Helywin Clinic</t>
+  </si>
+  <si>
+    <t>Karuru Clinic</t>
+  </si>
+  <si>
+    <t>Nyamakate Clinic</t>
+  </si>
+  <si>
+    <t>Moy Clinic</t>
+  </si>
+  <si>
+    <t>Zebra downs Clinic</t>
+  </si>
+  <si>
+    <t>Kasimure Clinic</t>
+  </si>
+  <si>
+    <t>Nyangoma Clinic</t>
+  </si>
+  <si>
+    <t>Karoi District Hospital</t>
   </si>
   <si>
     <t>Tengwe Clinic</t>
@@ -298,37 +325,13 @@
     <t>Donain</t>
   </si>
   <si>
-    <t>Helywin Clinic</t>
-  </si>
-  <si>
-    <t>Karuru Clinic</t>
-  </si>
-  <si>
     <t>Chirundu Clinic</t>
-  </si>
-  <si>
-    <t>Moy Clinic</t>
-  </si>
-  <si>
-    <t>Zebra downs Clinic</t>
-  </si>
-  <si>
-    <t>Kasimure Clinic</t>
-  </si>
-  <si>
-    <t>Nyangoma Clinic</t>
-  </si>
-  <si>
-    <t>Karoi District Hospital</t>
   </si>
   <si>
     <t>Chivende clinic</t>
   </si>
   <si>
     <t>Chinhere clinic</t>
-  </si>
-  <si>
-    <t>Nyamakate Clinic</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BZ48"/>
+  <dimension ref="A1:BZ57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -942,208 +945,208 @@
         <v>83</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
         <v>10</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>8</v>
-      </c>
-      <c r="P2">
+      <c r="X2">
+        <v>6</v>
+      </c>
+      <c r="Y2">
+        <v>3</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>3</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
         <v>10</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>3</v>
-      </c>
-      <c r="AN2">
-        <v>2</v>
-      </c>
-      <c r="AO2">
-        <v>1</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>0</v>
-      </c>
-      <c r="BS2">
-        <v>8</v>
       </c>
       <c r="BT2">
         <v>6</v>
       </c>
       <c r="BU2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW2">
         <v>0</v>
@@ -1166,7 +1169,7 @@
         <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3">
         <v>2025</v>
@@ -1175,16 +1178,16 @@
         <v>84</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>5</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1199,16 +1202,16 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P3">
         <v>5</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1274,13 +1277,13 @@
         <v>1</v>
       </c>
       <c r="AN3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO3">
         <v>1</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1367,16 +1370,16 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BT3">
         <v>5</v>
       </c>
       <c r="BU3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BV3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW3">
         <v>0</v>
@@ -1399,7 +1402,7 @@
         <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E4">
         <v>2025</v>
@@ -1408,211 +1411,211 @@
         <v>85</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>12</v>
+      </c>
+      <c r="P4">
         <v>4</v>
       </c>
-      <c r="K4">
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
         <v>2</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>8</v>
-      </c>
-      <c r="P4">
-        <v>5</v>
-      </c>
-      <c r="Q4">
-        <v>5</v>
-      </c>
-      <c r="R4">
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>2</v>
+      </c>
+      <c r="AN4">
         <v>4</v>
       </c>
-      <c r="S4">
+      <c r="AO4">
+        <v>3</v>
+      </c>
+      <c r="AP4">
         <v>2</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>12</v>
+      </c>
+      <c r="BT4">
+        <v>4</v>
+      </c>
+      <c r="BU4">
+        <v>3</v>
+      </c>
+      <c r="BV4">
         <v>2</v>
       </c>
-      <c r="AO4">
-        <v>2</v>
-      </c>
-      <c r="AP4">
-        <v>3</v>
-      </c>
-      <c r="AQ4">
-        <v>2</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
-        <v>0</v>
-      </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
-      <c r="BR4">
-        <v>0</v>
-      </c>
-      <c r="BS4">
-        <v>8</v>
-      </c>
-      <c r="BT4">
-        <v>5</v>
-      </c>
-      <c r="BU4">
-        <v>5</v>
-      </c>
-      <c r="BV4">
-        <v>4</v>
-      </c>
       <c r="BW4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BX4">
         <v>0</v>
@@ -1632,7 +1635,7 @@
         <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E5">
         <v>2025</v>
@@ -1641,19 +1644,19 @@
         <v>86</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1665,19 +1668,19 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="P5">
         <v>3</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1737,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AN5">
         <v>3</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1833,19 +1836,19 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="BT5">
         <v>3</v>
       </c>
       <c r="BU5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX5">
         <v>0</v>
@@ -1865,7 +1868,7 @@
         <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6">
         <v>2025</v>
@@ -1877,16 +1880,16 @@
         <v>4</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1901,16 +1904,16 @@
         <v>4</v>
       </c>
       <c r="P6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1970,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6">
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2066,10 +2069,10 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BU6">
         <v>0</v>
@@ -2078,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="BW6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX6">
         <v>0</v>
@@ -2107,16 +2110,16 @@
         <v>88</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2131,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2158,13 +2161,13 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -2206,13 +2209,13 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AO7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2302,13 +2305,13 @@
         <v>0</v>
       </c>
       <c r="BT7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BU7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW7">
         <v>0</v>
@@ -2331,7 +2334,7 @@
         <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8">
         <v>2025</v>
@@ -2340,22 +2343,22 @@
         <v>89</v>
       </c>
       <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
         <v>8</v>
       </c>
-      <c r="H8">
-        <v>9</v>
-      </c>
       <c r="I8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -2364,22 +2367,22 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -2388,166 +2391,166 @@
         <v>0</v>
       </c>
       <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>3</v>
+      </c>
+      <c r="AN8">
         <v>8</v>
       </c>
-      <c r="X8">
-        <v>9</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
+      <c r="AO8">
+        <v>3</v>
+      </c>
+      <c r="AP8">
+        <v>4</v>
+      </c>
+      <c r="AQ8">
+        <v>2</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>7</v>
+      </c>
+      <c r="BT8">
         <v>8</v>
       </c>
-      <c r="AN8">
-        <v>9</v>
-      </c>
-      <c r="AO8">
-        <v>1</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
-      <c r="BI8">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>0</v>
-      </c>
-      <c r="BO8">
-        <v>0</v>
-      </c>
-      <c r="BP8">
-        <v>0</v>
-      </c>
-      <c r="BQ8">
-        <v>0</v>
-      </c>
-      <c r="BR8">
-        <v>0</v>
-      </c>
-      <c r="BS8">
-        <v>8</v>
-      </c>
-      <c r="BT8">
-        <v>9</v>
-      </c>
       <c r="BU8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BV8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BW8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY8">
         <v>0</v>
@@ -2564,28 +2567,28 @@
         <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9">
         <v>2025</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I9">
         <v>4</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2597,19 +2600,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -2624,13 +2627,13 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -2669,19 +2672,19 @@
         <v>0</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AO9">
         <v>4</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2765,19 +2768,19 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BT9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BU9">
         <v>4</v>
       </c>
       <c r="BV9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BW9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX9">
         <v>0</v>
@@ -2797,25 +2800,25 @@
         <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10">
         <v>2025</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>3</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -2830,19 +2833,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -2857,61 +2860,61 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>4</v>
+      </c>
+      <c r="AN10">
         <v>3</v>
-      </c>
-      <c r="Z10">
-        <v>2</v>
-      </c>
-      <c r="AA10">
-        <v>1</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>6</v>
       </c>
       <c r="AO10">
         <v>3</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -2998,16 +3001,16 @@
         <v>0</v>
       </c>
       <c r="BS10">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="BT10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BU10">
         <v>3</v>
       </c>
       <c r="BV10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW10">
         <v>1</v>
@@ -3030,130 +3033,130 @@
         <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11">
         <v>2025</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
         <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>2</v>
-      </c>
-      <c r="Y11">
-        <v>2</v>
-      </c>
-      <c r="Z11">
-        <v>2</v>
-      </c>
-      <c r="AA11">
-        <v>3</v>
-      </c>
-      <c r="AB11">
-        <v>1</v>
-      </c>
-      <c r="AC11">
-        <v>1</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
       </c>
       <c r="AN11">
         <v>2</v>
       </c>
       <c r="AO11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11">
         <v>0</v>
@@ -3231,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BT11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BU11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BV11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BX11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ11">
         <v>0</v>
@@ -3269,22 +3272,22 @@
         <v>2025</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -3296,13 +3299,13 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -3323,16 +3326,16 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -3368,19 +3371,19 @@
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AO12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3464,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BT12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BU12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BV12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX12">
         <v>0</v>
@@ -3496,220 +3499,220 @@
         <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E13">
         <v>2025</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>8</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>2</v>
+      </c>
+      <c r="AO13">
+        <v>2</v>
+      </c>
+      <c r="AP13">
         <v>3</v>
       </c>
-      <c r="H13">
+      <c r="AQ13">
+        <v>2</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
         <v>8</v>
       </c>
-      <c r="I13">
-        <v>6</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>3</v>
-      </c>
-      <c r="X13">
-        <v>8</v>
-      </c>
-      <c r="Y13">
-        <v>6</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>3</v>
-      </c>
-      <c r="AN13">
-        <v>8</v>
-      </c>
-      <c r="AO13">
-        <v>6</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <v>0</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-      <c r="BD13">
-        <v>0</v>
-      </c>
-      <c r="BE13">
-        <v>0</v>
-      </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <v>0</v>
-      </c>
-      <c r="BH13">
-        <v>0</v>
-      </c>
-      <c r="BI13">
-        <v>0</v>
-      </c>
-      <c r="BJ13">
-        <v>0</v>
-      </c>
-      <c r="BK13">
-        <v>0</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
-        <v>0</v>
-      </c>
-      <c r="BO13">
-        <v>0</v>
-      </c>
-      <c r="BP13">
-        <v>0</v>
-      </c>
-      <c r="BQ13">
-        <v>0</v>
-      </c>
-      <c r="BR13">
-        <v>0</v>
-      </c>
-      <c r="BS13">
-        <v>3</v>
-      </c>
       <c r="BT13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BU13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BV13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BW13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX13">
         <v>0</v>
@@ -3729,44 +3732,44 @@
         <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E14">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G14">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H14">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>28</v>
+      </c>
+      <c r="P14">
         <v>3</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
       <c r="Q14">
         <v>0</v>
       </c>
@@ -3786,163 +3789,163 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>10</v>
+      </c>
+      <c r="AN14">
         <v>3</v>
       </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>11</v>
-      </c>
-      <c r="AN14">
-        <v>22</v>
-      </c>
       <c r="AO14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>0</v>
+      </c>
+      <c r="BR14">
+        <v>0</v>
+      </c>
+      <c r="BS14">
+        <v>28</v>
+      </c>
+      <c r="BT14">
         <v>3</v>
       </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14">
-        <v>0</v>
-      </c>
-      <c r="BA14">
-        <v>0</v>
-      </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
-      <c r="BC14">
-        <v>0</v>
-      </c>
-      <c r="BD14">
-        <v>0</v>
-      </c>
-      <c r="BE14">
-        <v>0</v>
-      </c>
-      <c r="BF14">
-        <v>0</v>
-      </c>
-      <c r="BG14">
-        <v>0</v>
-      </c>
-      <c r="BH14">
-        <v>0</v>
-      </c>
-      <c r="BI14">
-        <v>0</v>
-      </c>
-      <c r="BJ14">
-        <v>0</v>
-      </c>
-      <c r="BK14">
-        <v>0</v>
-      </c>
-      <c r="BL14">
-        <v>0</v>
-      </c>
-      <c r="BM14">
-        <v>0</v>
-      </c>
-      <c r="BN14">
-        <v>0</v>
-      </c>
-      <c r="BO14">
-        <v>0</v>
-      </c>
-      <c r="BP14">
-        <v>0</v>
-      </c>
-      <c r="BQ14">
-        <v>0</v>
-      </c>
-      <c r="BR14">
-        <v>0</v>
-      </c>
-      <c r="BS14">
-        <v>11</v>
-      </c>
-      <c r="BT14">
-        <v>22</v>
-      </c>
       <c r="BU14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BV14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BX14">
         <v>0</v>
@@ -3962,28 +3965,28 @@
         <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E15">
         <v>2025</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G15">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -3995,19 +3998,19 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -4067,19 +4070,19 @@
         <v>0</v>
       </c>
       <c r="AM15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4163,19 +4166,19 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BT15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BU15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX15">
         <v>0</v>
@@ -4195,25 +4198,25 @@
         <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E16">
         <v>2025</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -4228,13 +4231,13 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -4255,13 +4258,13 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -4300,16 +4303,16 @@
         <v>0</v>
       </c>
       <c r="AM16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AO16">
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
         <v>0</v>
@@ -4396,16 +4399,16 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BT16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BU16">
         <v>1</v>
       </c>
       <c r="BV16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW16">
         <v>0</v>
@@ -4428,70 +4431,70 @@
         <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17">
         <v>2025</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
         <v>9</v>
       </c>
-      <c r="H17">
-        <v>6</v>
-      </c>
       <c r="I17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>8</v>
+      </c>
+      <c r="X17">
         <v>9</v>
       </c>
-      <c r="P17">
-        <v>6</v>
-      </c>
-      <c r="Q17">
-        <v>7</v>
-      </c>
-      <c r="R17">
-        <v>4</v>
-      </c>
-      <c r="S17">
-        <v>6</v>
-      </c>
-      <c r="T17">
-        <v>6</v>
-      </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
       <c r="Y17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -4533,25 +4536,25 @@
         <v>0</v>
       </c>
       <c r="AM17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AN17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AO17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AP17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AQ17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AR17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17">
         <v>0</v>
@@ -4629,25 +4632,25 @@
         <v>0</v>
       </c>
       <c r="BS17">
+        <v>8</v>
+      </c>
+      <c r="BT17">
         <v>9</v>
       </c>
-      <c r="BT17">
-        <v>6</v>
-      </c>
       <c r="BU17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BV17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BW17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BX17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BY17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ17">
         <v>0</v>
@@ -4661,7 +4664,7 @@
         <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18">
         <v>2025</v>
@@ -4670,16 +4673,16 @@
         <v>97</v>
       </c>
       <c r="G18">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -4694,13 +4697,13 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -4721,13 +4724,13 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18">
         <v>0</v>
@@ -4766,16 +4769,16 @@
         <v>0</v>
       </c>
       <c r="AM18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AO18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -4862,16 +4865,16 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BT18">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BU18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BV18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW18">
         <v>0</v>
@@ -4894,28 +4897,28 @@
         <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19">
         <v>2025</v>
       </c>
       <c r="F19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
         <v>2</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -4927,43 +4930,43 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>6</v>
+      </c>
+      <c r="Y19">
+        <v>3</v>
+      </c>
+      <c r="Z19">
         <v>2</v>
       </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -4999,19 +5002,19 @@
         <v>0</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>6</v>
+      </c>
+      <c r="AO19">
         <v>3</v>
       </c>
-      <c r="AN19">
+      <c r="AP19">
         <v>2</v>
       </c>
-      <c r="AO19">
-        <v>1</v>
-      </c>
-      <c r="AP19">
-        <v>1</v>
-      </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5095,19 +5098,19 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BT19">
+        <v>6</v>
+      </c>
+      <c r="BU19">
+        <v>3</v>
+      </c>
+      <c r="BV19">
         <v>2</v>
       </c>
-      <c r="BU19">
-        <v>1</v>
-      </c>
-      <c r="BV19">
-        <v>1</v>
-      </c>
       <c r="BW19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX19">
         <v>0</v>
@@ -5127,49 +5130,49 @@
         <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20">
         <v>2025</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -5187,22 +5190,22 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -5232,25 +5235,25 @@
         <v>0</v>
       </c>
       <c r="AM20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AO20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20">
         <v>0</v>
@@ -5328,25 +5331,25 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BT20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BU20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BV20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BW20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BX20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ20">
         <v>0</v>
@@ -5360,25 +5363,25 @@
         <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E21">
         <v>2025</v>
       </c>
       <c r="F21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -5393,19 +5396,19 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -5420,16 +5423,16 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -5465,16 +5468,16 @@
         <v>0</v>
       </c>
       <c r="AM21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AO21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5561,16 +5564,16 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BT21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BU21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BV21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BW21">
         <v>1</v>
@@ -5602,19 +5605,19 @@
         <v>101</v>
       </c>
       <c r="G22">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -5626,19 +5629,19 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -5650,13 +5653,13 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -5698,19 +5701,19 @@
         <v>0</v>
       </c>
       <c r="AM22">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="AN22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5794,19 +5797,19 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="BT22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BU22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BV22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX22">
         <v>0</v>
@@ -5826,28 +5829,28 @@
         <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E23">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="G23">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -5859,16 +5862,16 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -5883,19 +5886,19 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -5931,19 +5934,19 @@
         <v>0</v>
       </c>
       <c r="AM23">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AN23">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="AO23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AP23">
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6027,19 +6030,19 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="BT23">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="BU23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BV23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BW23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BX23">
         <v>0</v>
@@ -6068,16 +6071,16 @@
         <v>84</v>
       </c>
       <c r="G24">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -6092,16 +6095,16 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -6164,16 +6167,16 @@
         <v>0</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>0</v>
@@ -6260,16 +6263,16 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BT24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BU24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW24">
         <v>0</v>
@@ -6301,109 +6304,109 @@
         <v>85</v>
       </c>
       <c r="G25">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>8</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
         <v>2</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>18</v>
-      </c>
-      <c r="P25">
-        <v>6</v>
-      </c>
-      <c r="Q25">
-        <v>2</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <v>4</v>
-      </c>
       <c r="AN25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AO25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP25">
         <v>0</v>
@@ -6493,13 +6496,13 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="BT25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BU25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BV25">
         <v>0</v>
@@ -6531,52 +6534,52 @@
         <v>2025</v>
       </c>
       <c r="F26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -6630,25 +6633,25 @@
         <v>0</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AS26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT26">
         <v>0</v>
@@ -6726,25 +6729,25 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BT26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BU26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BV26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BW26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BX26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BY26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ26">
         <v>0</v>
@@ -6764,16 +6767,16 @@
         <v>2025</v>
       </c>
       <c r="F27" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="G27">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="H27">
         <v>3</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -6782,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -6791,13 +6794,13 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="P27">
         <v>3</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -6806,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -6863,13 +6866,13 @@
         <v>0</v>
       </c>
       <c r="AM27">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP27">
         <v>0</v>
@@ -6878,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS27">
         <v>0</v>
@@ -6959,13 +6962,13 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="BT27">
         <v>3</v>
       </c>
       <c r="BU27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BV27">
         <v>0</v>
@@ -6974,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="BX27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY27">
         <v>0</v>
@@ -6997,115 +7000,115 @@
         <v>2025</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G28">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>5</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
         <v>3</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>24</v>
-      </c>
-      <c r="P28">
-        <v>3</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
       <c r="AN28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>0</v>
@@ -7192,16 +7195,16 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BT28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BU28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW28">
         <v>0</v>
@@ -7224,25 +7227,25 @@
         <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E29">
         <v>2025</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -7257,16 +7260,16 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -7329,16 +7332,16 @@
         <v>0</v>
       </c>
       <c r="AM29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
         <v>0</v>
@@ -7425,16 +7428,16 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BT29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BU29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BV29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW29">
         <v>0</v>
@@ -7457,28 +7460,28 @@
         <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E30">
         <v>2025</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -7490,19 +7493,19 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -7562,19 +7565,19 @@
         <v>0</v>
       </c>
       <c r="AM30">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AN30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7658,19 +7661,19 @@
         <v>0</v>
       </c>
       <c r="BS30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BT30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BU30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BV30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BW30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX30">
         <v>0</v>
@@ -7690,28 +7693,28 @@
         <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E31">
         <v>2025</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G31">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -7723,19 +7726,19 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -7795,19 +7798,19 @@
         <v>0</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7891,19 +7894,19 @@
         <v>0</v>
       </c>
       <c r="BS31">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="BT31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BU31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BV31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX31">
         <v>0</v>
@@ -7923,25 +7926,25 @@
         <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E32">
         <v>2025</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -7956,16 +7959,16 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -8028,16 +8031,16 @@
         <v>0</v>
       </c>
       <c r="AM32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AN32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>0</v>
@@ -8124,16 +8127,16 @@
         <v>0</v>
       </c>
       <c r="BS32">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BT32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW32">
         <v>0</v>
@@ -8156,25 +8159,25 @@
         <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E33">
         <v>2025</v>
       </c>
       <c r="F33" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -8189,16 +8192,16 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -8261,16 +8264,16 @@
         <v>0</v>
       </c>
       <c r="AM33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ33">
         <v>0</v>
@@ -8357,16 +8360,16 @@
         <v>0</v>
       </c>
       <c r="BS33">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BT33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BU33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW33">
         <v>0</v>
@@ -8389,28 +8392,28 @@
         <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E34">
         <v>2025</v>
       </c>
       <c r="F34" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H34">
         <v>6</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -8422,19 +8425,19 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="P34">
         <v>6</v>
       </c>
       <c r="Q34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -8494,19 +8497,19 @@
         <v>0</v>
       </c>
       <c r="AM34">
+        <v>4</v>
+      </c>
+      <c r="AN34">
+        <v>5</v>
+      </c>
+      <c r="AO34">
         <v>2</v>
       </c>
-      <c r="AN34">
-        <v>6</v>
-      </c>
-      <c r="AO34">
-        <v>3</v>
-      </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR34">
         <v>0</v>
@@ -8590,19 +8593,19 @@
         <v>0</v>
       </c>
       <c r="BS34">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="BT34">
         <v>6</v>
       </c>
       <c r="BU34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BV34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX34">
         <v>0</v>
@@ -8622,16 +8625,16 @@
         <v>77</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E35">
         <v>2025</v>
       </c>
       <c r="F35" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G35">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -8655,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -8727,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="AM35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN35">
         <v>0</v>
@@ -8823,7 +8826,7 @@
         <v>0</v>
       </c>
       <c r="BS35">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BT35">
         <v>0</v>
@@ -8855,22 +8858,22 @@
         <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E36">
         <v>2025</v>
       </c>
       <c r="F36" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="H36">
         <v>3</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -8879,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -8888,13 +8891,13 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P36">
         <v>3</v>
       </c>
       <c r="Q36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -8903,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -8960,13 +8963,13 @@
         <v>0</v>
       </c>
       <c r="AM36">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AN36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP36">
         <v>0</v>
@@ -8975,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS36">
         <v>0</v>
@@ -9056,13 +9059,13 @@
         <v>0</v>
       </c>
       <c r="BS36">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="BT36">
         <v>3</v>
       </c>
       <c r="BU36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BV36">
         <v>0</v>
@@ -9071,7 +9074,7 @@
         <v>0</v>
       </c>
       <c r="BX36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY36">
         <v>0</v>
@@ -9088,22 +9091,22 @@
         <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E37">
         <v>2025</v>
       </c>
       <c r="F37" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H37">
         <v>3</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -9121,13 +9124,13 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="P37">
         <v>3</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -9199,7 +9202,7 @@
         <v>3</v>
       </c>
       <c r="AO37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP37">
         <v>0</v>
@@ -9289,13 +9292,13 @@
         <v>0</v>
       </c>
       <c r="BS37">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="BT37">
         <v>3</v>
       </c>
       <c r="BU37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV37">
         <v>0</v>
@@ -9321,25 +9324,25 @@
         <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E38">
         <v>2025</v>
       </c>
       <c r="F38" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G38">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -9354,16 +9357,16 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -9426,16 +9429,16 @@
         <v>0</v>
       </c>
       <c r="AM38">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AN38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ38">
         <v>0</v>
@@ -9522,16 +9525,16 @@
         <v>0</v>
       </c>
       <c r="BS38">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="BT38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BU38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW38">
         <v>0</v>
@@ -9554,25 +9557,25 @@
         <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E39">
         <v>2025</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -9587,16 +9590,16 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -9659,16 +9662,16 @@
         <v>0</v>
       </c>
       <c r="AM39">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AN39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AO39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ39">
         <v>0</v>
@@ -9755,16 +9758,16 @@
         <v>0</v>
       </c>
       <c r="BS39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BU39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BV39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW39">
         <v>0</v>
@@ -9787,22 +9790,22 @@
         <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E40">
         <v>2025</v>
       </c>
       <c r="F40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G40">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -9820,13 +9823,13 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -9892,13 +9895,13 @@
         <v>0</v>
       </c>
       <c r="AM40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40">
         <v>0</v>
@@ -9988,13 +9991,13 @@
         <v>0</v>
       </c>
       <c r="BS40">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BT40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV40">
         <v>0</v>
@@ -10020,25 +10023,25 @@
         <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E41">
         <v>2025</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -10053,16 +10056,16 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -10125,16 +10128,16 @@
         <v>0</v>
       </c>
       <c r="AM41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN41">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AO41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41">
         <v>0</v>
@@ -10221,16 +10224,16 @@
         <v>0</v>
       </c>
       <c r="BS41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BT41">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BU41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BV41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW41">
         <v>0</v>
@@ -10253,25 +10256,25 @@
         <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E42">
         <v>2025</v>
       </c>
       <c r="F42" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="G42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -10286,16 +10289,16 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -10358,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="AM42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
         <v>0</v>
@@ -10454,16 +10457,16 @@
         <v>0</v>
       </c>
       <c r="BS42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BT42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BU42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BV42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW42">
         <v>0</v>
@@ -10492,19 +10495,19 @@
         <v>2025</v>
       </c>
       <c r="F43" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <v>6</v>
+      </c>
+      <c r="I43">
         <v>3</v>
       </c>
-      <c r="H43">
-        <v>4</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -10519,16 +10522,16 @@
         <v>0</v>
       </c>
       <c r="O43">
+        <v>5</v>
+      </c>
+      <c r="P43">
+        <v>6</v>
+      </c>
+      <c r="Q43">
         <v>3</v>
       </c>
-      <c r="P43">
-        <v>4</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
       <c r="R43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43">
         <v>1</v>
@@ -10591,16 +10594,16 @@
         <v>0</v>
       </c>
       <c r="AM43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -10687,16 +10690,16 @@
         <v>0</v>
       </c>
       <c r="BS43">
+        <v>5</v>
+      </c>
+      <c r="BT43">
+        <v>6</v>
+      </c>
+      <c r="BU43">
         <v>3</v>
       </c>
-      <c r="BT43">
-        <v>4</v>
-      </c>
-      <c r="BU43">
-        <v>0</v>
-      </c>
       <c r="BV43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW43">
         <v>1</v>
@@ -10719,25 +10722,25 @@
         <v>77</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>2025</v>
       </c>
       <c r="F44" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G44">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -10752,16 +10755,16 @@
         <v>0</v>
       </c>
       <c r="O44">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="P44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -10824,16 +10827,16 @@
         <v>0</v>
       </c>
       <c r="AM44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ44">
         <v>0</v>
@@ -10920,16 +10923,16 @@
         <v>0</v>
       </c>
       <c r="BS44">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="BT44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BU44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BV44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW44">
         <v>0</v>
@@ -10952,25 +10955,25 @@
         <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E45">
         <v>2025</v>
       </c>
       <c r="F45" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H45">
         <v>3</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -10985,88 +10988,88 @@
         <v>0</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P45">
         <v>3</v>
       </c>
       <c r="Q45">
+        <v>3</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>0</v>
+      </c>
+      <c r="AM45">
         <v>2</v>
-      </c>
-      <c r="R45">
-        <v>1</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>0</v>
-      </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
-      <c r="AB45">
-        <v>0</v>
-      </c>
-      <c r="AC45">
-        <v>0</v>
-      </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <v>0</v>
-      </c>
-      <c r="AF45">
-        <v>0</v>
-      </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
-      <c r="AH45">
-        <v>0</v>
-      </c>
-      <c r="AI45">
-        <v>0</v>
-      </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
-      <c r="AK45">
-        <v>0</v>
-      </c>
-      <c r="AL45">
-        <v>0</v>
-      </c>
-      <c r="AM45">
-        <v>3</v>
       </c>
       <c r="AN45">
         <v>3</v>
       </c>
       <c r="AO45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ45">
         <v>0</v>
@@ -11153,16 +11156,16 @@
         <v>0</v>
       </c>
       <c r="BS45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BT45">
         <v>3</v>
       </c>
       <c r="BU45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BV45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW45">
         <v>0</v>
@@ -11185,223 +11188,223 @@
         <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E46">
         <v>2025</v>
       </c>
       <c r="F46" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G46">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H46">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
         <v>5</v>
       </c>
-      <c r="J46">
+      <c r="P46">
+        <v>3</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>3</v>
+      </c>
+      <c r="AO46">
+        <v>1</v>
+      </c>
+      <c r="AP46">
+        <v>0</v>
+      </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <v>0</v>
+      </c>
+      <c r="AS46">
+        <v>0</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>0</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BE46">
+        <v>0</v>
+      </c>
+      <c r="BF46">
+        <v>0</v>
+      </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
+      <c r="BH46">
+        <v>0</v>
+      </c>
+      <c r="BI46">
+        <v>0</v>
+      </c>
+      <c r="BJ46">
+        <v>0</v>
+      </c>
+      <c r="BK46">
+        <v>0</v>
+      </c>
+      <c r="BL46">
+        <v>0</v>
+      </c>
+      <c r="BM46">
+        <v>0</v>
+      </c>
+      <c r="BN46">
+        <v>0</v>
+      </c>
+      <c r="BO46">
+        <v>0</v>
+      </c>
+      <c r="BP46">
+        <v>0</v>
+      </c>
+      <c r="BQ46">
+        <v>0</v>
+      </c>
+      <c r="BR46">
+        <v>0</v>
+      </c>
+      <c r="BS46">
         <v>5</v>
       </c>
-      <c r="K46">
-        <v>6</v>
-      </c>
-      <c r="L46">
-        <v>4</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>15</v>
-      </c>
-      <c r="P46">
-        <v>9</v>
-      </c>
-      <c r="Q46">
-        <v>5</v>
-      </c>
-      <c r="R46">
-        <v>5</v>
-      </c>
-      <c r="S46">
-        <v>6</v>
-      </c>
-      <c r="T46">
-        <v>4</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>0</v>
-      </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
-      <c r="AB46">
-        <v>0</v>
-      </c>
-      <c r="AC46">
-        <v>0</v>
-      </c>
-      <c r="AD46">
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <v>0</v>
-      </c>
-      <c r="AF46">
-        <v>0</v>
-      </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
-      <c r="AH46">
-        <v>0</v>
-      </c>
-      <c r="AI46">
-        <v>0</v>
-      </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
-      <c r="AK46">
-        <v>0</v>
-      </c>
-      <c r="AL46">
-        <v>0</v>
-      </c>
-      <c r="AM46">
-        <v>8</v>
-      </c>
-      <c r="AN46">
-        <v>9</v>
-      </c>
-      <c r="AO46">
-        <v>5</v>
-      </c>
-      <c r="AP46">
-        <v>5</v>
-      </c>
-      <c r="AQ46">
-        <v>6</v>
-      </c>
-      <c r="AR46">
-        <v>4</v>
-      </c>
-      <c r="AS46">
-        <v>0</v>
-      </c>
-      <c r="AT46">
-        <v>0</v>
-      </c>
-      <c r="AU46">
-        <v>0</v>
-      </c>
-      <c r="AV46">
-        <v>0</v>
-      </c>
-      <c r="AW46">
-        <v>0</v>
-      </c>
-      <c r="AX46">
-        <v>0</v>
-      </c>
-      <c r="AY46">
-        <v>0</v>
-      </c>
-      <c r="AZ46">
-        <v>0</v>
-      </c>
-      <c r="BA46">
-        <v>0</v>
-      </c>
-      <c r="BB46">
-        <v>0</v>
-      </c>
-      <c r="BC46">
-        <v>0</v>
-      </c>
-      <c r="BD46">
-        <v>0</v>
-      </c>
-      <c r="BE46">
-        <v>0</v>
-      </c>
-      <c r="BF46">
-        <v>0</v>
-      </c>
-      <c r="BG46">
-        <v>0</v>
-      </c>
-      <c r="BH46">
-        <v>0</v>
-      </c>
-      <c r="BI46">
-        <v>0</v>
-      </c>
-      <c r="BJ46">
-        <v>0</v>
-      </c>
-      <c r="BK46">
-        <v>0</v>
-      </c>
-      <c r="BL46">
-        <v>0</v>
-      </c>
-      <c r="BM46">
-        <v>0</v>
-      </c>
-      <c r="BN46">
-        <v>0</v>
-      </c>
-      <c r="BO46">
-        <v>0</v>
-      </c>
-      <c r="BP46">
-        <v>0</v>
-      </c>
-      <c r="BQ46">
-        <v>0</v>
-      </c>
-      <c r="BR46">
-        <v>0</v>
-      </c>
-      <c r="BS46">
-        <v>15</v>
-      </c>
       <c r="BT46">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BU46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BV46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BW46">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BX46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BY46">
         <v>0</v>
@@ -11418,25 +11421,25 @@
         <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E47">
         <v>2025</v>
       </c>
       <c r="F47" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -11451,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -11523,16 +11526,16 @@
         <v>0</v>
       </c>
       <c r="AM47">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AN47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
         <v>0</v>
@@ -11619,16 +11622,16 @@
         <v>0</v>
       </c>
       <c r="BS47">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BT47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BU47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BV47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW47">
         <v>0</v>
@@ -11651,228 +11654,2325 @@
         <v>77</v>
       </c>
       <c r="D48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E48">
         <v>2025</v>
       </c>
       <c r="F48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G48">
+        <v>7</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>7</v>
+      </c>
+      <c r="P48">
+        <v>5</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
+        <v>5</v>
+      </c>
+      <c r="AO48">
+        <v>3</v>
+      </c>
+      <c r="AP48">
+        <v>1</v>
+      </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
+      <c r="AR48">
+        <v>0</v>
+      </c>
+      <c r="AS48">
+        <v>0</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>0</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+      <c r="BF48">
+        <v>0</v>
+      </c>
+      <c r="BG48">
+        <v>0</v>
+      </c>
+      <c r="BH48">
+        <v>0</v>
+      </c>
+      <c r="BI48">
+        <v>0</v>
+      </c>
+      <c r="BJ48">
+        <v>0</v>
+      </c>
+      <c r="BK48">
+        <v>0</v>
+      </c>
+      <c r="BL48">
+        <v>0</v>
+      </c>
+      <c r="BM48">
+        <v>0</v>
+      </c>
+      <c r="BN48">
+        <v>0</v>
+      </c>
+      <c r="BO48">
+        <v>0</v>
+      </c>
+      <c r="BP48">
+        <v>0</v>
+      </c>
+      <c r="BQ48">
+        <v>0</v>
+      </c>
+      <c r="BR48">
+        <v>0</v>
+      </c>
+      <c r="BS48">
+        <v>7</v>
+      </c>
+      <c r="BT48">
+        <v>5</v>
+      </c>
+      <c r="BU48">
+        <v>3</v>
+      </c>
+      <c r="BV48">
+        <v>1</v>
+      </c>
+      <c r="BW48">
+        <v>0</v>
+      </c>
+      <c r="BX48">
+        <v>0</v>
+      </c>
+      <c r="BY48">
+        <v>0</v>
+      </c>
+      <c r="BZ48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:78">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49">
+        <v>2025</v>
+      </c>
+      <c r="F49" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49">
+        <v>8</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>8</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49">
+        <v>3</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
+        <v>1</v>
+      </c>
+      <c r="AP49">
+        <v>0</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>0</v>
+      </c>
+      <c r="AS49">
+        <v>0</v>
+      </c>
+      <c r="AT49">
+        <v>0</v>
+      </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
+        <v>0</v>
+      </c>
+      <c r="AW49">
+        <v>0</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>0</v>
+      </c>
+      <c r="BD49">
+        <v>0</v>
+      </c>
+      <c r="BE49">
+        <v>0</v>
+      </c>
+      <c r="BF49">
+        <v>0</v>
+      </c>
+      <c r="BG49">
+        <v>0</v>
+      </c>
+      <c r="BH49">
+        <v>0</v>
+      </c>
+      <c r="BI49">
+        <v>0</v>
+      </c>
+      <c r="BJ49">
+        <v>0</v>
+      </c>
+      <c r="BK49">
+        <v>0</v>
+      </c>
+      <c r="BL49">
+        <v>0</v>
+      </c>
+      <c r="BM49">
+        <v>0</v>
+      </c>
+      <c r="BN49">
+        <v>0</v>
+      </c>
+      <c r="BO49">
+        <v>0</v>
+      </c>
+      <c r="BP49">
+        <v>0</v>
+      </c>
+      <c r="BQ49">
+        <v>0</v>
+      </c>
+      <c r="BR49">
+        <v>0</v>
+      </c>
+      <c r="BS49">
+        <v>8</v>
+      </c>
+      <c r="BT49">
+        <v>1</v>
+      </c>
+      <c r="BU49">
+        <v>1</v>
+      </c>
+      <c r="BV49">
+        <v>0</v>
+      </c>
+      <c r="BW49">
+        <v>0</v>
+      </c>
+      <c r="BX49">
+        <v>0</v>
+      </c>
+      <c r="BY49">
+        <v>0</v>
+      </c>
+      <c r="BZ49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:78">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50">
+        <v>2025</v>
+      </c>
+      <c r="F50" t="s">
+        <v>87</v>
+      </c>
+      <c r="G50">
+        <v>8</v>
+      </c>
+      <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>8</v>
+      </c>
+      <c r="P50">
+        <v>6</v>
+      </c>
+      <c r="Q50">
+        <v>4</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <v>1</v>
+      </c>
+      <c r="AN50">
+        <v>6</v>
+      </c>
+      <c r="AO50">
+        <v>4</v>
+      </c>
+      <c r="AP50">
+        <v>1</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <v>0</v>
+      </c>
+      <c r="AS50">
+        <v>0</v>
+      </c>
+      <c r="AT50">
+        <v>0</v>
+      </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50">
+        <v>0</v>
+      </c>
+      <c r="AW50">
+        <v>0</v>
+      </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="AY50">
+        <v>0</v>
+      </c>
+      <c r="AZ50">
+        <v>0</v>
+      </c>
+      <c r="BA50">
+        <v>0</v>
+      </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BC50">
+        <v>0</v>
+      </c>
+      <c r="BD50">
+        <v>0</v>
+      </c>
+      <c r="BE50">
+        <v>0</v>
+      </c>
+      <c r="BF50">
+        <v>0</v>
+      </c>
+      <c r="BG50">
+        <v>0</v>
+      </c>
+      <c r="BH50">
+        <v>0</v>
+      </c>
+      <c r="BI50">
+        <v>0</v>
+      </c>
+      <c r="BJ50">
+        <v>0</v>
+      </c>
+      <c r="BK50">
+        <v>0</v>
+      </c>
+      <c r="BL50">
+        <v>0</v>
+      </c>
+      <c r="BM50">
+        <v>0</v>
+      </c>
+      <c r="BN50">
+        <v>0</v>
+      </c>
+      <c r="BO50">
+        <v>0</v>
+      </c>
+      <c r="BP50">
+        <v>0</v>
+      </c>
+      <c r="BQ50">
+        <v>0</v>
+      </c>
+      <c r="BR50">
+        <v>0</v>
+      </c>
+      <c r="BS50">
+        <v>8</v>
+      </c>
+      <c r="BT50">
+        <v>6</v>
+      </c>
+      <c r="BU50">
+        <v>4</v>
+      </c>
+      <c r="BV50">
+        <v>1</v>
+      </c>
+      <c r="BW50">
+        <v>0</v>
+      </c>
+      <c r="BX50">
+        <v>0</v>
+      </c>
+      <c r="BY50">
+        <v>0</v>
+      </c>
+      <c r="BZ50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:78">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51">
+        <v>2025</v>
+      </c>
+      <c r="F51" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>6</v>
+      </c>
+      <c r="P51">
+        <v>2</v>
+      </c>
+      <c r="Q51">
+        <v>2</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>0</v>
+      </c>
+      <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>2</v>
+      </c>
+      <c r="AO51">
+        <v>2</v>
+      </c>
+      <c r="AP51">
+        <v>0</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <v>0</v>
+      </c>
+      <c r="AS51">
+        <v>0</v>
+      </c>
+      <c r="AT51">
+        <v>0</v>
+      </c>
+      <c r="AU51">
+        <v>0</v>
+      </c>
+      <c r="AV51">
+        <v>0</v>
+      </c>
+      <c r="AW51">
+        <v>0</v>
+      </c>
+      <c r="AX51">
+        <v>0</v>
+      </c>
+      <c r="AY51">
+        <v>0</v>
+      </c>
+      <c r="AZ51">
+        <v>0</v>
+      </c>
+      <c r="BA51">
+        <v>0</v>
+      </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
+      <c r="BC51">
+        <v>0</v>
+      </c>
+      <c r="BD51">
+        <v>0</v>
+      </c>
+      <c r="BE51">
+        <v>0</v>
+      </c>
+      <c r="BF51">
+        <v>0</v>
+      </c>
+      <c r="BG51">
+        <v>0</v>
+      </c>
+      <c r="BH51">
+        <v>0</v>
+      </c>
+      <c r="BI51">
+        <v>0</v>
+      </c>
+      <c r="BJ51">
+        <v>0</v>
+      </c>
+      <c r="BK51">
+        <v>0</v>
+      </c>
+      <c r="BL51">
+        <v>0</v>
+      </c>
+      <c r="BM51">
+        <v>0</v>
+      </c>
+      <c r="BN51">
+        <v>0</v>
+      </c>
+      <c r="BO51">
+        <v>0</v>
+      </c>
+      <c r="BP51">
+        <v>0</v>
+      </c>
+      <c r="BQ51">
+        <v>0</v>
+      </c>
+      <c r="BR51">
+        <v>0</v>
+      </c>
+      <c r="BS51">
+        <v>6</v>
+      </c>
+      <c r="BT51">
+        <v>2</v>
+      </c>
+      <c r="BU51">
+        <v>2</v>
+      </c>
+      <c r="BV51">
+        <v>0</v>
+      </c>
+      <c r="BW51">
+        <v>0</v>
+      </c>
+      <c r="BX51">
+        <v>0</v>
+      </c>
+      <c r="BY51">
+        <v>0</v>
+      </c>
+      <c r="BZ51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:78">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52">
+        <v>2025</v>
+      </c>
+      <c r="F52" t="s">
+        <v>88</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>3</v>
+      </c>
+      <c r="P52">
+        <v>4</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52">
+        <v>1</v>
+      </c>
+      <c r="AN52">
+        <v>4</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <v>1</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52">
+        <v>0</v>
+      </c>
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AU52">
+        <v>0</v>
+      </c>
+      <c r="AV52">
+        <v>0</v>
+      </c>
+      <c r="AW52">
+        <v>0</v>
+      </c>
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="AY52">
+        <v>0</v>
+      </c>
+      <c r="AZ52">
+        <v>0</v>
+      </c>
+      <c r="BA52">
+        <v>0</v>
+      </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
+      <c r="BC52">
+        <v>0</v>
+      </c>
+      <c r="BD52">
+        <v>0</v>
+      </c>
+      <c r="BE52">
+        <v>0</v>
+      </c>
+      <c r="BF52">
+        <v>0</v>
+      </c>
+      <c r="BG52">
+        <v>0</v>
+      </c>
+      <c r="BH52">
+        <v>0</v>
+      </c>
+      <c r="BI52">
+        <v>0</v>
+      </c>
+      <c r="BJ52">
+        <v>0</v>
+      </c>
+      <c r="BK52">
+        <v>0</v>
+      </c>
+      <c r="BL52">
+        <v>0</v>
+      </c>
+      <c r="BM52">
+        <v>0</v>
+      </c>
+      <c r="BN52">
+        <v>0</v>
+      </c>
+      <c r="BO52">
+        <v>0</v>
+      </c>
+      <c r="BP52">
+        <v>0</v>
+      </c>
+      <c r="BQ52">
+        <v>0</v>
+      </c>
+      <c r="BR52">
+        <v>0</v>
+      </c>
+      <c r="BS52">
+        <v>3</v>
+      </c>
+      <c r="BT52">
+        <v>4</v>
+      </c>
+      <c r="BU52">
+        <v>0</v>
+      </c>
+      <c r="BV52">
+        <v>0</v>
+      </c>
+      <c r="BW52">
+        <v>1</v>
+      </c>
+      <c r="BX52">
+        <v>0</v>
+      </c>
+      <c r="BY52">
+        <v>0</v>
+      </c>
+      <c r="BZ52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:78">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53">
+        <v>2025</v>
+      </c>
+      <c r="F53" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53">
+        <v>24</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>24</v>
+      </c>
+      <c r="P53">
+        <v>3</v>
+      </c>
+      <c r="Q53">
+        <v>4</v>
+      </c>
+      <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>0</v>
+      </c>
+      <c r="AM53">
+        <v>2</v>
+      </c>
+      <c r="AN53">
+        <v>3</v>
+      </c>
+      <c r="AO53">
+        <v>4</v>
+      </c>
+      <c r="AP53">
+        <v>2</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
+      <c r="AS53">
+        <v>0</v>
+      </c>
+      <c r="AT53">
+        <v>0</v>
+      </c>
+      <c r="AU53">
+        <v>0</v>
+      </c>
+      <c r="AV53">
+        <v>0</v>
+      </c>
+      <c r="AW53">
+        <v>0</v>
+      </c>
+      <c r="AX53">
+        <v>0</v>
+      </c>
+      <c r="AY53">
+        <v>0</v>
+      </c>
+      <c r="AZ53">
+        <v>0</v>
+      </c>
+      <c r="BA53">
+        <v>0</v>
+      </c>
+      <c r="BB53">
+        <v>0</v>
+      </c>
+      <c r="BC53">
+        <v>0</v>
+      </c>
+      <c r="BD53">
+        <v>0</v>
+      </c>
+      <c r="BE53">
+        <v>0</v>
+      </c>
+      <c r="BF53">
+        <v>0</v>
+      </c>
+      <c r="BG53">
+        <v>0</v>
+      </c>
+      <c r="BH53">
+        <v>0</v>
+      </c>
+      <c r="BI53">
+        <v>0</v>
+      </c>
+      <c r="BJ53">
+        <v>0</v>
+      </c>
+      <c r="BK53">
+        <v>0</v>
+      </c>
+      <c r="BL53">
+        <v>0</v>
+      </c>
+      <c r="BM53">
+        <v>0</v>
+      </c>
+      <c r="BN53">
+        <v>0</v>
+      </c>
+      <c r="BO53">
+        <v>0</v>
+      </c>
+      <c r="BP53">
+        <v>0</v>
+      </c>
+      <c r="BQ53">
+        <v>0</v>
+      </c>
+      <c r="BR53">
+        <v>0</v>
+      </c>
+      <c r="BS53">
+        <v>24</v>
+      </c>
+      <c r="BT53">
+        <v>3</v>
+      </c>
+      <c r="BU53">
+        <v>4</v>
+      </c>
+      <c r="BV53">
+        <v>2</v>
+      </c>
+      <c r="BW53">
+        <v>0</v>
+      </c>
+      <c r="BX53">
+        <v>0</v>
+      </c>
+      <c r="BY53">
+        <v>0</v>
+      </c>
+      <c r="BZ53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:78">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54">
+        <v>2025</v>
+      </c>
+      <c r="F54" t="s">
+        <v>84</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>4</v>
+      </c>
+      <c r="P54">
+        <v>3</v>
+      </c>
+      <c r="Q54">
+        <v>2</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54">
+        <v>3</v>
+      </c>
+      <c r="AN54">
+        <v>3</v>
+      </c>
+      <c r="AO54">
+        <v>2</v>
+      </c>
+      <c r="AP54">
+        <v>1</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <v>0</v>
+      </c>
+      <c r="AS54">
+        <v>0</v>
+      </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
+      <c r="AU54">
+        <v>0</v>
+      </c>
+      <c r="AV54">
+        <v>0</v>
+      </c>
+      <c r="AW54">
+        <v>0</v>
+      </c>
+      <c r="AX54">
+        <v>0</v>
+      </c>
+      <c r="AY54">
+        <v>0</v>
+      </c>
+      <c r="AZ54">
+        <v>0</v>
+      </c>
+      <c r="BA54">
+        <v>0</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>0</v>
+      </c>
+      <c r="BD54">
+        <v>0</v>
+      </c>
+      <c r="BE54">
+        <v>0</v>
+      </c>
+      <c r="BF54">
+        <v>0</v>
+      </c>
+      <c r="BG54">
+        <v>0</v>
+      </c>
+      <c r="BH54">
+        <v>0</v>
+      </c>
+      <c r="BI54">
+        <v>0</v>
+      </c>
+      <c r="BJ54">
+        <v>0</v>
+      </c>
+      <c r="BK54">
+        <v>0</v>
+      </c>
+      <c r="BL54">
+        <v>0</v>
+      </c>
+      <c r="BM54">
+        <v>0</v>
+      </c>
+      <c r="BN54">
+        <v>0</v>
+      </c>
+      <c r="BO54">
+        <v>0</v>
+      </c>
+      <c r="BP54">
+        <v>0</v>
+      </c>
+      <c r="BQ54">
+        <v>0</v>
+      </c>
+      <c r="BR54">
+        <v>0</v>
+      </c>
+      <c r="BS54">
+        <v>4</v>
+      </c>
+      <c r="BT54">
+        <v>3</v>
+      </c>
+      <c r="BU54">
+        <v>2</v>
+      </c>
+      <c r="BV54">
+        <v>1</v>
+      </c>
+      <c r="BW54">
+        <v>0</v>
+      </c>
+      <c r="BX54">
+        <v>0</v>
+      </c>
+      <c r="BY54">
+        <v>0</v>
+      </c>
+      <c r="BZ54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:78">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55">
+        <v>2025</v>
+      </c>
+      <c r="F55" t="s">
+        <v>103</v>
+      </c>
+      <c r="G55">
         <v>15</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
+      <c r="H55">
+        <v>9</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+      <c r="K55">
+        <v>6</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
         <v>15</v>
       </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
-        <v>0</v>
-      </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48">
-        <v>0</v>
-      </c>
-      <c r="AI48">
-        <v>0</v>
-      </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
-      <c r="AK48">
-        <v>0</v>
-      </c>
-      <c r="AL48">
-        <v>0</v>
-      </c>
-      <c r="AM48">
-        <v>0</v>
-      </c>
-      <c r="AN48">
-        <v>0</v>
-      </c>
-      <c r="AO48">
-        <v>0</v>
-      </c>
-      <c r="AP48">
-        <v>0</v>
-      </c>
-      <c r="AQ48">
-        <v>0</v>
-      </c>
-      <c r="AR48">
-        <v>0</v>
-      </c>
-      <c r="AS48">
-        <v>0</v>
-      </c>
-      <c r="AT48">
-        <v>0</v>
-      </c>
-      <c r="AU48">
-        <v>0</v>
-      </c>
-      <c r="AV48">
-        <v>0</v>
-      </c>
-      <c r="AW48">
-        <v>0</v>
-      </c>
-      <c r="AX48">
-        <v>0</v>
-      </c>
-      <c r="AY48">
-        <v>0</v>
-      </c>
-      <c r="AZ48">
-        <v>0</v>
-      </c>
-      <c r="BA48">
-        <v>0</v>
-      </c>
-      <c r="BB48">
-        <v>0</v>
-      </c>
-      <c r="BC48">
-        <v>0</v>
-      </c>
-      <c r="BD48">
-        <v>0</v>
-      </c>
-      <c r="BE48">
-        <v>0</v>
-      </c>
-      <c r="BF48">
-        <v>0</v>
-      </c>
-      <c r="BG48">
-        <v>0</v>
-      </c>
-      <c r="BH48">
-        <v>0</v>
-      </c>
-      <c r="BI48">
-        <v>0</v>
-      </c>
-      <c r="BJ48">
-        <v>0</v>
-      </c>
-      <c r="BK48">
-        <v>0</v>
-      </c>
-      <c r="BL48">
-        <v>0</v>
-      </c>
-      <c r="BM48">
-        <v>0</v>
-      </c>
-      <c r="BN48">
-        <v>0</v>
-      </c>
-      <c r="BO48">
-        <v>0</v>
-      </c>
-      <c r="BP48">
-        <v>0</v>
-      </c>
-      <c r="BQ48">
-        <v>0</v>
-      </c>
-      <c r="BR48">
-        <v>0</v>
-      </c>
-      <c r="BS48">
+      <c r="P55">
+        <v>9</v>
+      </c>
+      <c r="Q55">
+        <v>5</v>
+      </c>
+      <c r="R55">
+        <v>5</v>
+      </c>
+      <c r="S55">
+        <v>6</v>
+      </c>
+      <c r="T55">
+        <v>4</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55">
+        <v>8</v>
+      </c>
+      <c r="AN55">
+        <v>9</v>
+      </c>
+      <c r="AO55">
+        <v>5</v>
+      </c>
+      <c r="AP55">
+        <v>5</v>
+      </c>
+      <c r="AQ55">
+        <v>6</v>
+      </c>
+      <c r="AR55">
+        <v>4</v>
+      </c>
+      <c r="AS55">
+        <v>0</v>
+      </c>
+      <c r="AT55">
+        <v>0</v>
+      </c>
+      <c r="AU55">
+        <v>0</v>
+      </c>
+      <c r="AV55">
+        <v>0</v>
+      </c>
+      <c r="AW55">
+        <v>0</v>
+      </c>
+      <c r="AX55">
+        <v>0</v>
+      </c>
+      <c r="AY55">
+        <v>0</v>
+      </c>
+      <c r="AZ55">
+        <v>0</v>
+      </c>
+      <c r="BA55">
+        <v>0</v>
+      </c>
+      <c r="BB55">
+        <v>0</v>
+      </c>
+      <c r="BC55">
+        <v>0</v>
+      </c>
+      <c r="BD55">
+        <v>0</v>
+      </c>
+      <c r="BE55">
+        <v>0</v>
+      </c>
+      <c r="BF55">
+        <v>0</v>
+      </c>
+      <c r="BG55">
+        <v>0</v>
+      </c>
+      <c r="BH55">
+        <v>0</v>
+      </c>
+      <c r="BI55">
+        <v>0</v>
+      </c>
+      <c r="BJ55">
+        <v>0</v>
+      </c>
+      <c r="BK55">
+        <v>0</v>
+      </c>
+      <c r="BL55">
+        <v>0</v>
+      </c>
+      <c r="BM55">
+        <v>0</v>
+      </c>
+      <c r="BN55">
+        <v>0</v>
+      </c>
+      <c r="BO55">
+        <v>0</v>
+      </c>
+      <c r="BP55">
+        <v>0</v>
+      </c>
+      <c r="BQ55">
+        <v>0</v>
+      </c>
+      <c r="BR55">
+        <v>0</v>
+      </c>
+      <c r="BS55">
+        <v>15</v>
+      </c>
+      <c r="BT55">
+        <v>9</v>
+      </c>
+      <c r="BU55">
+        <v>5</v>
+      </c>
+      <c r="BV55">
+        <v>5</v>
+      </c>
+      <c r="BW55">
+        <v>6</v>
+      </c>
+      <c r="BX55">
+        <v>4</v>
+      </c>
+      <c r="BY55">
+        <v>0</v>
+      </c>
+      <c r="BZ55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:78">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56">
+        <v>2025</v>
+      </c>
+      <c r="F56" t="s">
+        <v>105</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
+      <c r="AR56">
+        <v>0</v>
+      </c>
+      <c r="AS56">
+        <v>0</v>
+      </c>
+      <c r="AT56">
+        <v>0</v>
+      </c>
+      <c r="AU56">
+        <v>0</v>
+      </c>
+      <c r="AV56">
+        <v>0</v>
+      </c>
+      <c r="AW56">
+        <v>0</v>
+      </c>
+      <c r="AX56">
+        <v>0</v>
+      </c>
+      <c r="AY56">
+        <v>0</v>
+      </c>
+      <c r="AZ56">
+        <v>0</v>
+      </c>
+      <c r="BA56">
+        <v>0</v>
+      </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+      <c r="BC56">
+        <v>0</v>
+      </c>
+      <c r="BD56">
+        <v>0</v>
+      </c>
+      <c r="BE56">
+        <v>0</v>
+      </c>
+      <c r="BF56">
+        <v>0</v>
+      </c>
+      <c r="BG56">
+        <v>0</v>
+      </c>
+      <c r="BH56">
+        <v>0</v>
+      </c>
+      <c r="BI56">
+        <v>0</v>
+      </c>
+      <c r="BJ56">
+        <v>0</v>
+      </c>
+      <c r="BK56">
+        <v>0</v>
+      </c>
+      <c r="BL56">
+        <v>0</v>
+      </c>
+      <c r="BM56">
+        <v>0</v>
+      </c>
+      <c r="BN56">
+        <v>0</v>
+      </c>
+      <c r="BO56">
+        <v>0</v>
+      </c>
+      <c r="BP56">
+        <v>0</v>
+      </c>
+      <c r="BQ56">
+        <v>0</v>
+      </c>
+      <c r="BR56">
+        <v>0</v>
+      </c>
+      <c r="BS56">
+        <v>0</v>
+      </c>
+      <c r="BT56">
+        <v>0</v>
+      </c>
+      <c r="BU56">
+        <v>0</v>
+      </c>
+      <c r="BV56">
+        <v>0</v>
+      </c>
+      <c r="BW56">
+        <v>0</v>
+      </c>
+      <c r="BX56">
+        <v>0</v>
+      </c>
+      <c r="BY56">
+        <v>0</v>
+      </c>
+      <c r="BZ56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:78">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57">
+        <v>2025</v>
+      </c>
+      <c r="F57" t="s">
+        <v>92</v>
+      </c>
+      <c r="G57">
+        <v>15</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>15</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>0</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>0</v>
+      </c>
+      <c r="AQ57">
+        <v>0</v>
+      </c>
+      <c r="AR57">
+        <v>0</v>
+      </c>
+      <c r="AS57">
+        <v>0</v>
+      </c>
+      <c r="AT57">
+        <v>0</v>
+      </c>
+      <c r="AU57">
+        <v>0</v>
+      </c>
+      <c r="AV57">
+        <v>0</v>
+      </c>
+      <c r="AW57">
+        <v>0</v>
+      </c>
+      <c r="AX57">
+        <v>0</v>
+      </c>
+      <c r="AY57">
+        <v>0</v>
+      </c>
+      <c r="AZ57">
+        <v>0</v>
+      </c>
+      <c r="BA57">
+        <v>0</v>
+      </c>
+      <c r="BB57">
+        <v>0</v>
+      </c>
+      <c r="BC57">
+        <v>0</v>
+      </c>
+      <c r="BD57">
+        <v>0</v>
+      </c>
+      <c r="BE57">
+        <v>0</v>
+      </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <v>0</v>
+      </c>
+      <c r="BH57">
+        <v>0</v>
+      </c>
+      <c r="BI57">
+        <v>0</v>
+      </c>
+      <c r="BJ57">
+        <v>0</v>
+      </c>
+      <c r="BK57">
+        <v>0</v>
+      </c>
+      <c r="BL57">
+        <v>0</v>
+      </c>
+      <c r="BM57">
+        <v>0</v>
+      </c>
+      <c r="BN57">
+        <v>0</v>
+      </c>
+      <c r="BO57">
+        <v>0</v>
+      </c>
+      <c r="BP57">
+        <v>0</v>
+      </c>
+      <c r="BQ57">
+        <v>0</v>
+      </c>
+      <c r="BR57">
+        <v>0</v>
+      </c>
+      <c r="BS57">
         <v>11</v>
       </c>
-      <c r="BT48">
-        <v>0</v>
-      </c>
-      <c r="BU48">
-        <v>0</v>
-      </c>
-      <c r="BV48">
-        <v>0</v>
-      </c>
-      <c r="BW48">
-        <v>0</v>
-      </c>
-      <c r="BX48">
-        <v>0</v>
-      </c>
-      <c r="BY48">
-        <v>0</v>
-      </c>
-      <c r="BZ48">
+      <c r="BT57">
+        <v>0</v>
+      </c>
+      <c r="BU57">
+        <v>0</v>
+      </c>
+      <c r="BV57">
+        <v>0</v>
+      </c>
+      <c r="BW57">
+        <v>0</v>
+      </c>
+      <c r="BX57">
+        <v>0</v>
+      </c>
+      <c r="BY57">
+        <v>0</v>
+      </c>
+      <c r="BZ57">
         <v>0</v>
       </c>
     </row>

--- a/resultantLookupTable.xlsx
+++ b/resultantLookupTable.xlsx
@@ -295,7 +295,7 @@
     <t>Mahusekwa District Hospital</t>
   </si>
   <si>
-    <t>Madam ombre Clinic</t>
+    <t>Madamombe Clinic</t>
   </si>
   <si>
     <t>Chimbwanda Clinic</t>

--- a/resultantLookupTable.xlsx
+++ b/resultantLookupTable.xlsx
@@ -12838,13 +12838,13 @@
         <v>0</v>
       </c>
       <c r="BS52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV52">
         <v>0</v>
@@ -13071,10 +13071,10 @@
         <v>0</v>
       </c>
       <c r="BS53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BT53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU53">
         <v>0</v>

--- a/resultantLookupTable.xlsx
+++ b/resultantLookupTable.xlsx
@@ -4079,44 +4079,44 @@
         <v>0</v>
       </c>
       <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
         <v>6</v>
       </c>
-      <c r="X15">
+      <c r="AF15">
         <v>4</v>
       </c>
-      <c r="Y15">
+      <c r="AG15">
         <v>5</v>
       </c>
-      <c r="Z15">
+      <c r="AH15">
         <v>3</v>
       </c>
-      <c r="AA15">
+      <c r="AI15">
         <v>3</v>
       </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
       <c r="AJ15">
         <v>0</v>
       </c>
@@ -4223,19 +4223,19 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BT15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BU15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BV15">
         <v>3</v>
       </c>
       <c r="BW15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BX15">
         <v>0</v>

--- a/resultantLookupTable.xlsx
+++ b/resultantLookupTable.xlsx
@@ -1462,7 +1462,7 @@
         <v>78</v>
       </c>
       <c r="E4">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F4" t="s">
         <v>88</v>
@@ -5062,7 +5062,7 @@
         <v>3</v>
       </c>
       <c r="AN19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AO19">
         <v>7</v>

--- a/resultantLookupTable.xlsx
+++ b/resultantLookupTable.xlsx
@@ -4264,206 +4264,206 @@
         <v>99</v>
       </c>
       <c r="G16">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <v>2</v>
       </c>
-      <c r="I16">
-        <v>4</v>
-      </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>2</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>12</v>
-      </c>
       <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
         <v>2</v>
       </c>
-      <c r="Q16">
-        <v>4</v>
-      </c>
       <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
         <v>2</v>
       </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>1</v>
-      </c>
-      <c r="AO16">
-        <v>4</v>
-      </c>
       <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <v>0</v>
+      </c>
+      <c r="BR16">
+        <v>0</v>
+      </c>
+      <c r="BS16">
         <v>2</v>
       </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
-      <c r="AW16">
-        <v>0</v>
-      </c>
-      <c r="AX16">
-        <v>0</v>
-      </c>
-      <c r="AY16">
-        <v>0</v>
-      </c>
-      <c r="AZ16">
-        <v>0</v>
-      </c>
-      <c r="BA16">
-        <v>0</v>
-      </c>
-      <c r="BB16">
-        <v>0</v>
-      </c>
-      <c r="BC16">
-        <v>0</v>
-      </c>
-      <c r="BD16">
-        <v>0</v>
-      </c>
-      <c r="BE16">
-        <v>0</v>
-      </c>
-      <c r="BF16">
-        <v>0</v>
-      </c>
-      <c r="BG16">
-        <v>0</v>
-      </c>
-      <c r="BH16">
-        <v>0</v>
-      </c>
-      <c r="BI16">
-        <v>0</v>
-      </c>
-      <c r="BJ16">
-        <v>0</v>
-      </c>
-      <c r="BK16">
-        <v>0</v>
-      </c>
-      <c r="BL16">
-        <v>0</v>
-      </c>
-      <c r="BM16">
-        <v>0</v>
-      </c>
-      <c r="BN16">
-        <v>0</v>
-      </c>
-      <c r="BO16">
-        <v>0</v>
-      </c>
-      <c r="BP16">
-        <v>0</v>
-      </c>
-      <c r="BQ16">
-        <v>0</v>
-      </c>
-      <c r="BR16">
-        <v>0</v>
-      </c>
-      <c r="BS16">
-        <v>12</v>
-      </c>
       <c r="BT16">
+        <v>1</v>
+      </c>
+      <c r="BU16">
         <v>2</v>
       </c>
-      <c r="BU16">
-        <v>4</v>
-      </c>
       <c r="BV16">
         <v>0</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="BY16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ16">
         <v>0</v>

--- a/resultantLookupTable.xlsx
+++ b/resultantLookupTable.xlsx
@@ -5211,49 +5211,49 @@
         <v>90</v>
       </c>
       <c r="G20">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -5307,25 +5307,25 @@
         <v>0</v>
       </c>
       <c r="AM20">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AN20">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AO20">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AQ20">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AR20">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AT20">
         <v>0</v>
@@ -13133,16 +13133,16 @@
         <v>102</v>
       </c>
       <c r="G54">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -13181,16 +13181,16 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="X54">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA54">
         <v>0</v>
@@ -13229,16 +13229,16 @@
         <v>0</v>
       </c>
       <c r="AM54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN54">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AO54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ54">
         <v>0</v>
@@ -13253,7 +13253,7 @@
         <v>0</v>
       </c>
       <c r="AU54">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AV54">
         <v>0</v>
@@ -13325,16 +13325,16 @@
         <v>0</v>
       </c>
       <c r="BS54">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BT54">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BU54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BV54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BW54">
         <v>0</v>
@@ -25249,16 +25249,16 @@
         <v>115</v>
       </c>
       <c r="G106">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -25297,16 +25297,16 @@
         <v>0</v>
       </c>
       <c r="W106">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X106">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y106">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA106">
         <v>0</v>
@@ -25345,16 +25345,16 @@
         <v>0</v>
       </c>
       <c r="AM106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN106">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AO106">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ106">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="AU106">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AV106">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="BS106">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BT106">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BU106">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BV106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW106">
         <v>0</v>

--- a/resultantLookupTable.xlsx
+++ b/resultantLookupTable.xlsx
@@ -8243,19 +8243,19 @@
         <v>95</v>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -8264,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -8315,19 +8315,19 @@
         <v>0</v>
       </c>
       <c r="AE33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG33">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AH33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AJ33">
         <v>0</v>
@@ -8336,13 +8336,13 @@
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33">
         <v>0</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO33">
         <v>0</v>
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -8360,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="AT33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -22573,7 +22573,7 @@
         <v>0</v>
       </c>
       <c r="AT94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU94">
         <v>0</v>

--- a/resultantLookupTable.xlsx
+++ b/resultantLookupTable.xlsx
@@ -11604,16 +11604,16 @@
         <v>0</v>
       </c>
       <c r="AN47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP47">
         <v>0</v>
       </c>
       <c r="AQ47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR47">
         <v>0</v>

--- a/resultantLookupTable.xlsx
+++ b/resultantLookupTable.xlsx
@@ -1486,13 +1486,13 @@
         <v>86</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN4">
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -1678,16 +1678,16 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW4">
         <v>0</v>
@@ -6845,13 +6845,13 @@
         <v>93</v>
       </c>
       <c r="G27">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -6863,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -6893,13 +6893,13 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="X27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="AC27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -6941,13 +6941,13 @@
         <v>0</v>
       </c>
       <c r="AM27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP27">
         <v>0</v>
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27">
         <v>0</v>
@@ -7037,13 +7037,13 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BT27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BU27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV27">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="BY27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ27">
         <v>0</v>
@@ -8243,19 +8243,19 @@
         <v>95</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -8264,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -8315,19 +8315,19 @@
         <v>0</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ33">
         <v>0</v>
@@ -8336,7 +8336,7 @@
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM33">
         <v>0</v>
@@ -8447,7 +8447,7 @@
         <v>3</v>
       </c>
       <c r="BW33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BX33">
         <v>0</v>

--- a/resultantLookupTable.xlsx
+++ b/resultantLookupTable.xlsx
@@ -1486,13 +1486,13 @@
         <v>86</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -35504,211 +35504,211 @@
         <v>125</v>
       </c>
       <c r="G150">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <v>0</v>
+      </c>
+      <c r="S150">
+        <v>0</v>
+      </c>
+      <c r="T150">
+        <v>0</v>
+      </c>
+      <c r="U150">
+        <v>0</v>
+      </c>
+      <c r="V150">
+        <v>0</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AA150">
+        <v>0</v>
+      </c>
+      <c r="AB150">
+        <v>0</v>
+      </c>
+      <c r="AC150">
+        <v>0</v>
+      </c>
+      <c r="AD150">
+        <v>0</v>
+      </c>
+      <c r="AE150">
+        <v>0</v>
+      </c>
+      <c r="AF150">
+        <v>0</v>
+      </c>
+      <c r="AG150">
+        <v>0</v>
+      </c>
+      <c r="AH150">
+        <v>0</v>
+      </c>
+      <c r="AI150">
+        <v>0</v>
+      </c>
+      <c r="AJ150">
+        <v>0</v>
+      </c>
+      <c r="AK150">
+        <v>0</v>
+      </c>
+      <c r="AL150">
+        <v>0</v>
+      </c>
+      <c r="AM150">
+        <v>0</v>
+      </c>
+      <c r="AN150">
+        <v>0</v>
+      </c>
+      <c r="AO150">
+        <v>0</v>
+      </c>
+      <c r="AP150">
+        <v>0</v>
+      </c>
+      <c r="AQ150">
+        <v>0</v>
+      </c>
+      <c r="AR150">
+        <v>0</v>
+      </c>
+      <c r="AS150">
+        <v>0</v>
+      </c>
+      <c r="AT150">
+        <v>0</v>
+      </c>
+      <c r="AU150">
+        <v>0</v>
+      </c>
+      <c r="AV150">
+        <v>0</v>
+      </c>
+      <c r="AW150">
+        <v>0</v>
+      </c>
+      <c r="AX150">
+        <v>0</v>
+      </c>
+      <c r="AY150">
+        <v>0</v>
+      </c>
+      <c r="AZ150">
+        <v>0</v>
+      </c>
+      <c r="BA150">
+        <v>0</v>
+      </c>
+      <c r="BB150">
+        <v>0</v>
+      </c>
+      <c r="BC150">
+        <v>0</v>
+      </c>
+      <c r="BD150">
+        <v>0</v>
+      </c>
+      <c r="BE150">
+        <v>0</v>
+      </c>
+      <c r="BF150">
+        <v>0</v>
+      </c>
+      <c r="BG150">
+        <v>0</v>
+      </c>
+      <c r="BH150">
+        <v>0</v>
+      </c>
+      <c r="BI150">
+        <v>0</v>
+      </c>
+      <c r="BJ150">
+        <v>0</v>
+      </c>
+      <c r="BK150">
+        <v>0</v>
+      </c>
+      <c r="BL150">
+        <v>0</v>
+      </c>
+      <c r="BM150">
+        <v>0</v>
+      </c>
+      <c r="BN150">
+        <v>0</v>
+      </c>
+      <c r="BO150">
+        <v>0</v>
+      </c>
+      <c r="BP150">
+        <v>0</v>
+      </c>
+      <c r="BQ150">
+        <v>0</v>
+      </c>
+      <c r="BR150">
+        <v>0</v>
+      </c>
+      <c r="BS150">
         <v>7</v>
       </c>
-      <c r="I150">
-        <v>6</v>
-      </c>
-      <c r="J150">
-        <v>1</v>
-      </c>
-      <c r="K150">
-        <v>1</v>
-      </c>
-      <c r="L150">
-        <v>0</v>
-      </c>
-      <c r="M150">
-        <v>0</v>
-      </c>
-      <c r="N150">
-        <v>0</v>
-      </c>
-      <c r="O150">
-        <v>0</v>
-      </c>
-      <c r="P150">
-        <v>0</v>
-      </c>
-      <c r="Q150">
-        <v>0</v>
-      </c>
-      <c r="R150">
-        <v>0</v>
-      </c>
-      <c r="S150">
-        <v>0</v>
-      </c>
-      <c r="T150">
-        <v>0</v>
-      </c>
-      <c r="U150">
-        <v>0</v>
-      </c>
-      <c r="V150">
-        <v>0</v>
-      </c>
-      <c r="W150">
-        <v>12</v>
-      </c>
-      <c r="X150">
-        <v>7</v>
-      </c>
-      <c r="Y150">
-        <v>6</v>
-      </c>
-      <c r="Z150">
-        <v>1</v>
-      </c>
-      <c r="AA150">
-        <v>1</v>
-      </c>
-      <c r="AB150">
-        <v>0</v>
-      </c>
-      <c r="AC150">
-        <v>0</v>
-      </c>
-      <c r="AD150">
-        <v>0</v>
-      </c>
-      <c r="AE150">
-        <v>0</v>
-      </c>
-      <c r="AF150">
-        <v>0</v>
-      </c>
-      <c r="AG150">
-        <v>0</v>
-      </c>
-      <c r="AH150">
-        <v>0</v>
-      </c>
-      <c r="AI150">
-        <v>0</v>
-      </c>
-      <c r="AJ150">
-        <v>0</v>
-      </c>
-      <c r="AK150">
-        <v>0</v>
-      </c>
-      <c r="AL150">
-        <v>0</v>
-      </c>
-      <c r="AM150">
+      <c r="BT150">
+        <v>2</v>
+      </c>
+      <c r="BU150">
         <v>3</v>
       </c>
-      <c r="AN150">
-        <v>3</v>
-      </c>
-      <c r="AO150">
-        <v>3</v>
-      </c>
-      <c r="AP150">
-        <v>1</v>
-      </c>
-      <c r="AQ150">
-        <v>1</v>
-      </c>
-      <c r="AR150">
-        <v>0</v>
-      </c>
-      <c r="AS150">
-        <v>0</v>
-      </c>
-      <c r="AT150">
-        <v>0</v>
-      </c>
-      <c r="AU150">
-        <v>0</v>
-      </c>
-      <c r="AV150">
-        <v>0</v>
-      </c>
-      <c r="AW150">
-        <v>0</v>
-      </c>
-      <c r="AX150">
-        <v>0</v>
-      </c>
-      <c r="AY150">
-        <v>0</v>
-      </c>
-      <c r="AZ150">
-        <v>0</v>
-      </c>
-      <c r="BA150">
-        <v>0</v>
-      </c>
-      <c r="BB150">
-        <v>0</v>
-      </c>
-      <c r="BC150">
-        <v>0</v>
-      </c>
-      <c r="BD150">
-        <v>0</v>
-      </c>
-      <c r="BE150">
-        <v>0</v>
-      </c>
-      <c r="BF150">
-        <v>0</v>
-      </c>
-      <c r="BG150">
-        <v>0</v>
-      </c>
-      <c r="BH150">
-        <v>0</v>
-      </c>
-      <c r="BI150">
-        <v>0</v>
-      </c>
-      <c r="BJ150">
-        <v>0</v>
-      </c>
-      <c r="BK150">
-        <v>0</v>
-      </c>
-      <c r="BL150">
-        <v>0</v>
-      </c>
-      <c r="BM150">
-        <v>0</v>
-      </c>
-      <c r="BN150">
-        <v>0</v>
-      </c>
-      <c r="BO150">
-        <v>0</v>
-      </c>
-      <c r="BP150">
-        <v>0</v>
-      </c>
-      <c r="BQ150">
-        <v>0</v>
-      </c>
-      <c r="BR150">
-        <v>0</v>
-      </c>
-      <c r="BS150">
-        <v>12</v>
-      </c>
-      <c r="BT150">
-        <v>7</v>
-      </c>
-      <c r="BU150">
-        <v>6</v>
-      </c>
       <c r="BV150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX150">
         <v>0</v>

--- a/resultantLookupTable.xlsx
+++ b/resultantLookupTable.xlsx
@@ -35504,19 +35504,19 @@
         <v>125</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L150">
         <v>0</v>
@@ -35552,19 +35552,19 @@
         <v>0</v>
       </c>
       <c r="W150">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="X150">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y150">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB150">
         <v>0</v>
